--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_21_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_21_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3209245.269946792</v>
+        <v>-3209946.44830646</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2715164.622248561</v>
+        <v>2715164.62224856</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1370,22 +1370,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>152.4673927454455</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>127.6317349977859</v>
       </c>
       <c r="F11" t="n">
-        <v>112.9677643085043</v>
+        <v>152.4673927454455</v>
       </c>
       <c r="G11" t="n">
-        <v>152.4673927454454</v>
+        <v>152.4673927454455</v>
       </c>
       <c r="H11" t="n">
-        <v>143.5763141419073</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>6.661544532402493</v>
       </c>
       <c r="T11" t="n">
-        <v>30.21659382522213</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>152.4673927454454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,13 +1449,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>152.4673927454454</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>114.6059412935735</v>
+        <v>8.437869619189126</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1464,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.5747460571428</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>152.4673927454455</v>
       </c>
       <c r="T12" t="n">
-        <v>8.429001563564306</v>
+        <v>152.4673927454455</v>
       </c>
       <c r="U12" t="n">
-        <v>35.29796700881639</v>
+        <v>35.29796700881625</v>
       </c>
       <c r="V12" t="n">
-        <v>42.17529672426517</v>
+        <v>42.17529672426502</v>
       </c>
       <c r="W12" t="n">
-        <v>61.0696927357595</v>
+        <v>61.06969273575936</v>
       </c>
       <c r="X12" t="n">
-        <v>15.14769477831737</v>
+        <v>15.14769477831723</v>
       </c>
       <c r="Y12" t="n">
-        <v>15.05740535214426</v>
+        <v>15.05740535214412</v>
       </c>
     </row>
     <row r="13">
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>29.36620977645364</v>
+        <v>29.3662097764535</v>
       </c>
       <c r="T13" t="n">
-        <v>36.33344663868817</v>
+        <v>36.33344663868802</v>
       </c>
       <c r="U13" t="n">
-        <v>95.68114081604014</v>
+        <v>95.68114081604</v>
       </c>
       <c r="V13" t="n">
-        <v>61.5123528986679</v>
+        <v>61.51235289866776</v>
       </c>
       <c r="W13" t="n">
-        <v>95.8977079114309</v>
+        <v>95.89770791143076</v>
       </c>
       <c r="X13" t="n">
-        <v>35.08436496387705</v>
+        <v>35.08436496387691</v>
       </c>
       <c r="Y13" t="n">
-        <v>27.95936292693469</v>
+        <v>27.95936292693455</v>
       </c>
     </row>
     <row r="14">
@@ -1607,22 +1607,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>152.4673927454455</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>152.4673927454455</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>127.6317349977857</v>
       </c>
       <c r="G14" t="n">
-        <v>152.4673927454454</v>
+        <v>152.4673927454455</v>
       </c>
       <c r="H14" t="n">
-        <v>143.5763141419072</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>6.661544532402672</v>
       </c>
       <c r="T14" t="n">
-        <v>30.21659382522205</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>112.9677643085044</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>152.4673927454454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>152.4673927454455</v>
       </c>
       <c r="C15" t="n">
-        <v>152.4673927454454</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1698,10 +1698,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>87.60030622309993</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.5747460571428</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1737,22 +1737,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>8.429001563564221</v>
+        <v>8.429001563564334</v>
       </c>
       <c r="U15" t="n">
-        <v>35.29796700881631</v>
+        <v>35.29796700881642</v>
       </c>
       <c r="V15" t="n">
-        <v>42.17529672426508</v>
+        <v>42.17529672426519</v>
       </c>
       <c r="W15" t="n">
-        <v>152.4673927454454</v>
+        <v>61.06969273575953</v>
       </c>
       <c r="X15" t="n">
-        <v>15.14769477831729</v>
+        <v>15.1476947783174</v>
       </c>
       <c r="Y15" t="n">
-        <v>15.05740535214417</v>
+        <v>84.48066552778695</v>
       </c>
     </row>
     <row r="16">
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>29.36620977645356</v>
+        <v>29.36620977645367</v>
       </c>
       <c r="T16" t="n">
-        <v>36.33344663868808</v>
+        <v>36.33344663868819</v>
       </c>
       <c r="U16" t="n">
-        <v>95.68114081604006</v>
+        <v>95.68114081604017</v>
       </c>
       <c r="V16" t="n">
-        <v>61.51235289866781</v>
+        <v>61.51235289866793</v>
       </c>
       <c r="W16" t="n">
-        <v>95.89770791143081</v>
+        <v>95.89770791143093</v>
       </c>
       <c r="X16" t="n">
-        <v>35.08436496387696</v>
+        <v>35.08436496387708</v>
       </c>
       <c r="Y16" t="n">
-        <v>27.9593629269346</v>
+        <v>27.95936292693472</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>66.21089222143348</v>
+        <v>66.21089222143354</v>
       </c>
       <c r="C17" t="n">
-        <v>48.74994232896046</v>
+        <v>48.74994232896051</v>
       </c>
       <c r="D17" t="n">
-        <v>38.16009217863586</v>
+        <v>38.16009217863592</v>
       </c>
       <c r="E17" t="n">
-        <v>65.40742063021469</v>
+        <v>65.40742063021474</v>
       </c>
       <c r="F17" t="n">
-        <v>90.35309629966434</v>
+        <v>90.3530962996644</v>
       </c>
       <c r="G17" t="n">
-        <v>98.26489022871351</v>
+        <v>98.26489022871357</v>
       </c>
       <c r="H17" t="n">
-        <v>17.67865512502033</v>
+        <v>17.67865512502038</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>11.22930902808781</v>
+        <v>11.22930902808787</v>
       </c>
       <c r="W17" t="n">
-        <v>32.71801927536592</v>
+        <v>32.71801927536598</v>
       </c>
       <c r="X17" t="n">
-        <v>53.20815123642194</v>
+        <v>53.208151236422</v>
       </c>
       <c r="Y17" t="n">
-        <v>69.71498921400649</v>
+        <v>69.71498921400655</v>
       </c>
     </row>
     <row r="18">
@@ -1923,16 +1923,16 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>146.7137870630566</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>152.4673927454454</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>79.9114009222932</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1977,19 +1977,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>152.4673927454455</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>152.4673927454455</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>59.40420578870198</v>
       </c>
     </row>
     <row r="19">
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>5.791467086157642</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>148.5047140303538</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>77.0299230141255</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>7.86221846994224</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>66.21089222143343</v>
+        <v>66.21089222143348</v>
       </c>
       <c r="C20" t="n">
-        <v>48.7499423289604</v>
+        <v>48.74994232896046</v>
       </c>
       <c r="D20" t="n">
-        <v>38.16009217863581</v>
+        <v>38.16009217863586</v>
       </c>
       <c r="E20" t="n">
-        <v>65.40742063021463</v>
+        <v>65.40742063021469</v>
       </c>
       <c r="F20" t="n">
-        <v>90.35309629966429</v>
+        <v>90.35309629966434</v>
       </c>
       <c r="G20" t="n">
-        <v>98.26489022871345</v>
+        <v>98.26489022871351</v>
       </c>
       <c r="H20" t="n">
-        <v>17.67865512502027</v>
+        <v>17.67865512502033</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>11.229309028088</v>
+        <v>11.22930902808781</v>
       </c>
       <c r="W20" t="n">
-        <v>32.71801927536586</v>
+        <v>32.71801927536592</v>
       </c>
       <c r="X20" t="n">
-        <v>53.20815123642188</v>
+        <v>53.20815123642194</v>
       </c>
       <c r="Y20" t="n">
-        <v>69.71498921400644</v>
+        <v>69.71498921400649</v>
       </c>
     </row>
     <row r="21">
@@ -2160,16 +2160,16 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>152.4673927454454</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>146.7137870630565</v>
+        <v>152.4673927454455</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2214,13 +2214,13 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>152.4673927454455</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>152.4673927454455</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>134.2932795301884</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2242,13 +2242,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>77.0299230141255</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>149.5324677071094</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>75.69696968826503</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>66.21089222143343</v>
+        <v>66.2108922214336</v>
       </c>
       <c r="C23" t="n">
-        <v>48.7499423289604</v>
+        <v>48.74994232896057</v>
       </c>
       <c r="D23" t="n">
-        <v>38.16009217863581</v>
+        <v>38.16009217863598</v>
       </c>
       <c r="E23" t="n">
-        <v>65.40742063021463</v>
+        <v>65.4074206302148</v>
       </c>
       <c r="F23" t="n">
-        <v>90.35309629966429</v>
+        <v>90.35309629966446</v>
       </c>
       <c r="G23" t="n">
-        <v>98.26489022871345</v>
+        <v>98.26489022871363</v>
       </c>
       <c r="H23" t="n">
-        <v>17.67865512502027</v>
+        <v>17.67865512502044</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>11.22930902808775</v>
+        <v>11.22930902808793</v>
       </c>
       <c r="W23" t="n">
-        <v>32.71801927536586</v>
+        <v>32.71801927536603</v>
       </c>
       <c r="X23" t="n">
-        <v>53.20815123642188</v>
+        <v>53.20815123642205</v>
       </c>
       <c r="Y23" t="n">
-        <v>69.71498921400644</v>
+        <v>69.71498921400661</v>
       </c>
     </row>
     <row r="24">
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>152.4673927454454</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2442,16 +2442,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>54.38187860789548</v>
       </c>
       <c r="S24" t="n">
-        <v>54.38187860789503</v>
+        <v>152.4673927454459</v>
       </c>
       <c r="T24" t="n">
-        <v>152.4673927454454</v>
+        <v>152.4673927454459</v>
       </c>
       <c r="U24" t="n">
-        <v>152.4673927454454</v>
+        <v>152.4673927454459</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2476,16 +2476,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>152.4673927454459</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>74.6840550646271</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>77.0299230141255</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2518,13 +2518,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>66.82183659468487</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>78.85871138519111</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>225.3374735258461</v>
+        <v>225.3374735258464</v>
       </c>
       <c r="C26" t="n">
-        <v>207.8765236333731</v>
+        <v>207.8765236333734</v>
       </c>
       <c r="D26" t="n">
-        <v>197.2866734830485</v>
+        <v>197.2866734830488</v>
       </c>
       <c r="E26" t="n">
-        <v>224.5340019346274</v>
+        <v>224.5340019346276</v>
       </c>
       <c r="F26" t="n">
-        <v>249.479677604077</v>
+        <v>249.4796776040773</v>
       </c>
       <c r="G26" t="n">
-        <v>257.3914715331262</v>
+        <v>257.3914715331265</v>
       </c>
       <c r="H26" t="n">
-        <v>176.805236429433</v>
+        <v>176.8052364294333</v>
       </c>
       <c r="I26" t="n">
-        <v>33.22892228752579</v>
+        <v>33.22892228752607</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>39.89046681992831</v>
+        <v>39.8904668199286</v>
       </c>
       <c r="T26" t="n">
-        <v>63.44551611274781</v>
+        <v>63.44551611274809</v>
       </c>
       <c r="U26" t="n">
-        <v>93.9080929426521</v>
+        <v>93.90809294265239</v>
       </c>
       <c r="V26" t="n">
-        <v>170.3558903325005</v>
+        <v>170.3558903325008</v>
       </c>
       <c r="W26" t="n">
-        <v>191.8446005797786</v>
+        <v>191.8446005797789</v>
       </c>
       <c r="X26" t="n">
-        <v>212.3347325408346</v>
+        <v>212.3347325408349</v>
       </c>
       <c r="Y26" t="n">
-        <v>228.8415705184192</v>
+        <v>228.8415705184194</v>
       </c>
     </row>
     <row r="27">
@@ -2637,16 +2637,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2487123177665183</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>74.92797610412811</v>
+        <v>84.87927867712266</v>
       </c>
       <c r="H27" t="n">
         <v>109.5747460571428</v>
@@ -2682,22 +2682,22 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>9.16961096367714</v>
+        <v>166.5659791013116</v>
       </c>
       <c r="T27" t="n">
-        <v>41.65792385108998</v>
+        <v>41.65792385109027</v>
       </c>
       <c r="U27" t="n">
         <v>225.9232574339765</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>75.40421901179113</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>94.29861502328546</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>48.37661706584333</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>22.43561204430287</v>
+        <v>22.43561204430316</v>
       </c>
       <c r="C28" t="n">
-        <v>9.850452960993408</v>
+        <v>9.850452960993692</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>10.36364577382932</v>
+        <v>10.36364577382961</v>
       </c>
       <c r="H28" t="n">
-        <v>2.777311577431324</v>
+        <v>2.777311577431608</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.511976868286656</v>
+        <v>9.51197686828694</v>
       </c>
       <c r="S28" t="n">
-        <v>62.59513206397932</v>
+        <v>62.59513206397961</v>
       </c>
       <c r="T28" t="n">
-        <v>69.56236892621384</v>
+        <v>69.56236892621412</v>
       </c>
       <c r="U28" t="n">
-        <v>128.9100631035658</v>
+        <v>128.9100631035661</v>
       </c>
       <c r="V28" t="n">
-        <v>94.74127518619358</v>
+        <v>94.74127518619386</v>
       </c>
       <c r="W28" t="n">
-        <v>129.1266301989566</v>
+        <v>129.1266301989569</v>
       </c>
       <c r="X28" t="n">
-        <v>68.31328725140273</v>
+        <v>68.31328725140301</v>
       </c>
       <c r="Y28" t="n">
-        <v>61.18828521446036</v>
+        <v>61.18828521446065</v>
       </c>
     </row>
     <row r="29">
@@ -2801,16 +2801,16 @@
         <v>224.5340019346274</v>
       </c>
       <c r="F29" t="n">
-        <v>249.4796776040771</v>
+        <v>249.479677604077</v>
       </c>
       <c r="G29" t="n">
-        <v>257.3914715331263</v>
+        <v>257.3914715331262</v>
       </c>
       <c r="H29" t="n">
         <v>176.805236429433</v>
       </c>
       <c r="I29" t="n">
-        <v>33.22892228752585</v>
+        <v>33.22892228752582</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>39.89046681992837</v>
+        <v>39.89046681992834</v>
       </c>
       <c r="T29" t="n">
-        <v>63.44551611274787</v>
+        <v>63.44551611274784</v>
       </c>
       <c r="U29" t="n">
-        <v>93.90809294265216</v>
+        <v>93.90809294265213</v>
       </c>
       <c r="V29" t="n">
         <v>170.3558903325005</v>
@@ -2855,7 +2855,7 @@
         <v>191.8446005797786</v>
       </c>
       <c r="X29" t="n">
-        <v>212.3347325408347</v>
+        <v>212.3347325408346</v>
       </c>
       <c r="Y29" t="n">
         <v>228.8415705184192</v>
@@ -2874,22 +2874,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.5747460571428</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>79.9114009222932</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,10 +2919,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>9.169610963677197</v>
+        <v>9.169610963677169</v>
       </c>
       <c r="T30" t="n">
-        <v>146.2998256257648</v>
+        <v>116.585899955218</v>
       </c>
       <c r="U30" t="n">
         <v>225.9232574339765</v>
@@ -2937,7 +2937,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>48.28632763966996</v>
       </c>
     </row>
     <row r="31">
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>22.43561204430293</v>
+        <v>22.4356120443029</v>
       </c>
       <c r="C31" t="n">
-        <v>9.850452960993465</v>
+        <v>9.850452960993437</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>10.36364577382938</v>
+        <v>10.36364577382935</v>
       </c>
       <c r="H31" t="n">
-        <v>2.777311577431381</v>
+        <v>2.777311577431352</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.511976868286713</v>
+        <v>9.511976868286684</v>
       </c>
       <c r="S31" t="n">
-        <v>62.59513206397938</v>
+        <v>62.59513206397935</v>
       </c>
       <c r="T31" t="n">
-        <v>69.56236892621389</v>
+        <v>69.56236892621386</v>
       </c>
       <c r="U31" t="n">
-        <v>128.9100631035659</v>
+        <v>128.9100631035658</v>
       </c>
       <c r="V31" t="n">
-        <v>94.74127518619363</v>
+        <v>94.7412751861936</v>
       </c>
       <c r="W31" t="n">
         <v>129.1266301989566</v>
       </c>
       <c r="X31" t="n">
-        <v>68.31328725140278</v>
+        <v>68.31328725140276</v>
       </c>
       <c r="Y31" t="n">
-        <v>61.18828521446042</v>
+        <v>61.18828521446039</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>225.3374735258462</v>
+        <v>225.3374735258463</v>
       </c>
       <c r="C32" t="n">
         <v>207.8765236333732</v>
@@ -3035,7 +3035,7 @@
         <v>197.2866734830486</v>
       </c>
       <c r="E32" t="n">
-        <v>224.5340019346274</v>
+        <v>224.5340019346275</v>
       </c>
       <c r="F32" t="n">
         <v>249.4796776040771</v>
@@ -3047,7 +3047,7 @@
         <v>176.8052364294331</v>
       </c>
       <c r="I32" t="n">
-        <v>33.22892228752585</v>
+        <v>33.2289222875259</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>39.89046681992838</v>
+        <v>39.89046681992843</v>
       </c>
       <c r="T32" t="n">
-        <v>63.44551611274787</v>
+        <v>63.44551611274792</v>
       </c>
       <c r="U32" t="n">
-        <v>93.90809294265216</v>
+        <v>93.90809294265222</v>
       </c>
       <c r="V32" t="n">
-        <v>170.3558903325005</v>
+        <v>170.3558903325006</v>
       </c>
       <c r="W32" t="n">
-        <v>191.8446005797786</v>
+        <v>191.8446005797787</v>
       </c>
       <c r="X32" t="n">
         <v>212.3347325408347</v>
       </c>
       <c r="Y32" t="n">
-        <v>228.8415705184192</v>
+        <v>228.8415705184193</v>
       </c>
     </row>
     <row r="33">
@@ -3117,10 +3117,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>104.6419017746748</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3156,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>9.169610963677197</v>
+        <v>126.1386684826024</v>
       </c>
       <c r="T33" t="n">
-        <v>41.65792385109004</v>
+        <v>41.6579238510901</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9232574339765</v>
+        <v>68.52688929634219</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>22.43561204430293</v>
+        <v>22.43561204430299</v>
       </c>
       <c r="C34" t="n">
-        <v>9.850452960993465</v>
+        <v>9.850452960993522</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>10.36364577382938</v>
+        <v>10.36364577382944</v>
       </c>
       <c r="H34" t="n">
-        <v>2.777311577431381</v>
+        <v>2.777311577431437</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.511976868286713</v>
+        <v>9.511976868286769</v>
       </c>
       <c r="S34" t="n">
-        <v>62.59513206397938</v>
+        <v>62.59513206397943</v>
       </c>
       <c r="T34" t="n">
-        <v>69.56236892621389</v>
+        <v>69.56236892621395</v>
       </c>
       <c r="U34" t="n">
         <v>128.9100631035659</v>
       </c>
       <c r="V34" t="n">
-        <v>94.74127518619363</v>
+        <v>94.74127518619369</v>
       </c>
       <c r="W34" t="n">
-        <v>129.1266301989566</v>
+        <v>129.1266301989567</v>
       </c>
       <c r="X34" t="n">
-        <v>68.31328725140278</v>
+        <v>68.31328725140284</v>
       </c>
       <c r="Y34" t="n">
-        <v>61.18828521446042</v>
+        <v>61.18828521446048</v>
       </c>
     </row>
     <row r="35">
@@ -3360,10 +3360,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.5747460571428</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>79.9114009222932</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3396,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>10.40022419605828</v>
+        <v>1.767457031161604</v>
       </c>
       <c r="U36" t="n">
         <v>225.9232574339765</v>
@@ -3411,7 +3411,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>24.82931596276504</v>
       </c>
     </row>
     <row r="37">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>185.4470067059178</v>
+        <v>185.4470067059177</v>
       </c>
       <c r="C38" t="n">
         <v>167.9860568134447</v>
       </c>
       <c r="D38" t="n">
-        <v>157.3962066631202</v>
+        <v>157.3962066631201</v>
       </c>
       <c r="E38" t="n">
-        <v>184.643535114699</v>
+        <v>184.6435351146989</v>
       </c>
       <c r="F38" t="n">
-        <v>209.5892107841486</v>
+        <v>209.5892107841485</v>
       </c>
       <c r="G38" t="n">
-        <v>217.5010047131978</v>
+        <v>217.5010047131977</v>
       </c>
       <c r="H38" t="n">
-        <v>136.9147696095046</v>
+        <v>136.9147696095045</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>23.55504929281943</v>
+        <v>23.55504929281935</v>
       </c>
       <c r="U38" t="n">
-        <v>54.01762612272373</v>
+        <v>54.01762612272364</v>
       </c>
       <c r="V38" t="n">
-        <v>130.4654235125721</v>
+        <v>130.465423512572</v>
       </c>
       <c r="W38" t="n">
-        <v>151.9541337598502</v>
+        <v>151.9541337598501</v>
       </c>
       <c r="X38" t="n">
-        <v>172.4442657209062</v>
+        <v>172.4442657209061</v>
       </c>
       <c r="Y38" t="n">
-        <v>188.9511036984908</v>
+        <v>188.9511036984907</v>
       </c>
     </row>
     <row r="39">
@@ -3579,10 +3579,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>39.35362302114788</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3633,10 +3633,10 @@
         <v>166.5659791013116</v>
       </c>
       <c r="T39" t="n">
-        <v>1.767457031161604</v>
+        <v>199.0542919887244</v>
       </c>
       <c r="U39" t="n">
-        <v>28.63642247641369</v>
+        <v>225.9232574339765</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3648,7 +3648,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>189.7043315215098</v>
       </c>
     </row>
     <row r="40">
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>22.70466524405094</v>
+        <v>22.70466524405086</v>
       </c>
       <c r="T40" t="n">
-        <v>29.67190210628546</v>
+        <v>29.67190210628538</v>
       </c>
       <c r="U40" t="n">
-        <v>89.01959628363744</v>
+        <v>89.01959628363736</v>
       </c>
       <c r="V40" t="n">
-        <v>54.8508083662652</v>
+        <v>54.85080836626511</v>
       </c>
       <c r="W40" t="n">
-        <v>89.2361633790282</v>
+        <v>89.23616337902811</v>
       </c>
       <c r="X40" t="n">
-        <v>28.42282043147435</v>
+        <v>28.42282043147426</v>
       </c>
       <c r="Y40" t="n">
-        <v>21.29781839453199</v>
+        <v>21.2978183945319</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>185.4470067059178</v>
+        <v>185.4470067059177</v>
       </c>
       <c r="C41" t="n">
         <v>167.9860568134447</v>
       </c>
       <c r="D41" t="n">
-        <v>157.3962066631202</v>
+        <v>157.3962066631201</v>
       </c>
       <c r="E41" t="n">
-        <v>184.643535114699</v>
+        <v>184.6435351146989</v>
       </c>
       <c r="F41" t="n">
         <v>209.5892107841486</v>
@@ -3791,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>23.55504929281943</v>
+        <v>23.5550492928194</v>
       </c>
       <c r="U41" t="n">
-        <v>54.01762612272373</v>
+        <v>54.0176261227237</v>
       </c>
       <c r="V41" t="n">
         <v>130.4654235125721</v>
@@ -3822,7 +3822,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -3870,10 +3870,10 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>157.845289760697</v>
+        <v>199.0542919887244</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9232574339765</v>
+        <v>37.26918964131045</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>22.70466524405094</v>
+        <v>22.70466524405091</v>
       </c>
       <c r="T43" t="n">
-        <v>29.67190210628546</v>
+        <v>29.67190210628543</v>
       </c>
       <c r="U43" t="n">
-        <v>89.01959628363744</v>
+        <v>89.01959628363741</v>
       </c>
       <c r="V43" t="n">
-        <v>54.8508083662652</v>
+        <v>54.85080836626517</v>
       </c>
       <c r="W43" t="n">
-        <v>89.2361633790282</v>
+        <v>89.23616337902817</v>
       </c>
       <c r="X43" t="n">
-        <v>28.42282043147435</v>
+        <v>28.42282043147432</v>
       </c>
       <c r="Y43" t="n">
-        <v>21.29781839453199</v>
+        <v>21.29781839453196</v>
       </c>
     </row>
     <row r="44">
@@ -3989,10 +3989,10 @@
         <v>209.5892107841487</v>
       </c>
       <c r="G44" t="n">
-        <v>217.5010047131979</v>
+        <v>217.5010047131978</v>
       </c>
       <c r="H44" t="n">
-        <v>136.9147696095047</v>
+        <v>136.9147696095046</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,16 +4028,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>23.55504929281949</v>
+        <v>23.55504929281947</v>
       </c>
       <c r="U44" t="n">
-        <v>54.01762612272379</v>
+        <v>54.01762612272376</v>
       </c>
       <c r="V44" t="n">
-        <v>130.4654235125722</v>
+        <v>130.4654235125721</v>
       </c>
       <c r="W44" t="n">
-        <v>151.9541337598503</v>
+        <v>151.9541337598502</v>
       </c>
       <c r="X44" t="n">
         <v>172.4442657209063</v>
@@ -4071,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.5747460571428</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4107,13 +4107,13 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>10.40022419605828</v>
+        <v>1.767457031161636</v>
       </c>
       <c r="U45" t="n">
         <v>225.9232574339765</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>131.8586082571777</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>22.704665244051</v>
+        <v>22.70466524405098</v>
       </c>
       <c r="T46" t="n">
-        <v>29.67190210628552</v>
+        <v>29.67190210628549</v>
       </c>
       <c r="U46" t="n">
-        <v>89.0195962836375</v>
+        <v>89.01959628363747</v>
       </c>
       <c r="V46" t="n">
-        <v>54.85080836626526</v>
+        <v>54.85080836626523</v>
       </c>
       <c r="W46" t="n">
-        <v>89.23616337902826</v>
+        <v>89.23616337902823</v>
       </c>
       <c r="X46" t="n">
-        <v>28.42282043147441</v>
+        <v>28.42282043147438</v>
       </c>
       <c r="Y46" t="n">
-        <v>21.29781839453204</v>
+        <v>21.29781839453202</v>
       </c>
     </row>
   </sheetData>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>425.3402916174711</v>
+        <v>603.1407381207695</v>
       </c>
       <c r="C11" t="n">
-        <v>425.3402916174711</v>
+        <v>449.1332707011275</v>
       </c>
       <c r="D11" t="n">
-        <v>425.3402916174711</v>
+        <v>449.1332707011275</v>
       </c>
       <c r="E11" t="n">
-        <v>425.3402916174711</v>
+        <v>320.2123262589196</v>
       </c>
       <c r="F11" t="n">
-        <v>311.231438780598</v>
+        <v>166.2048588392776</v>
       </c>
       <c r="G11" t="n">
-        <v>157.2239713609562</v>
+        <v>12.19739141963564</v>
       </c>
       <c r="H11" t="n">
         <v>12.19739141963564</v>
@@ -5045,46 +5045,46 @@
         <v>43.63189276835482</v>
       </c>
       <c r="L11" t="n">
-        <v>157.0414145278087</v>
+        <v>194.5746115863459</v>
       </c>
       <c r="M11" t="n">
-        <v>307.9841333457997</v>
+        <v>262.8277827224257</v>
       </c>
       <c r="N11" t="n">
-        <v>458.9268521637907</v>
+        <v>413.7705015404168</v>
       </c>
       <c r="O11" t="n">
-        <v>609.8695709817817</v>
+        <v>564.7132203584079</v>
       </c>
       <c r="P11" t="n">
-        <v>609.8695709817817</v>
+        <v>564.7132203584079</v>
       </c>
       <c r="Q11" t="n">
-        <v>609.8695709817817</v>
+        <v>609.8695709817821</v>
       </c>
       <c r="R11" t="n">
-        <v>609.8695709817817</v>
+        <v>609.8695709817821</v>
       </c>
       <c r="S11" t="n">
-        <v>609.8695709817817</v>
+        <v>603.1407381207695</v>
       </c>
       <c r="T11" t="n">
-        <v>579.347759037113</v>
+        <v>603.1407381207695</v>
       </c>
       <c r="U11" t="n">
-        <v>579.347759037113</v>
+        <v>603.1407381207695</v>
       </c>
       <c r="V11" t="n">
-        <v>579.347759037113</v>
+        <v>603.1407381207695</v>
       </c>
       <c r="W11" t="n">
-        <v>579.347759037113</v>
+        <v>603.1407381207695</v>
       </c>
       <c r="X11" t="n">
-        <v>579.347759037113</v>
+        <v>603.1407381207695</v>
       </c>
       <c r="Y11" t="n">
-        <v>425.3402916174711</v>
+        <v>603.1407381207695</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>430.9028455647444</v>
+        <v>131.4020537189608</v>
       </c>
       <c r="C12" t="n">
-        <v>276.8953781451025</v>
+        <v>131.4020537189608</v>
       </c>
       <c r="D12" t="n">
-        <v>127.9609684838513</v>
+        <v>131.4020537189608</v>
       </c>
       <c r="E12" t="n">
-        <v>12.19739141963564</v>
+        <v>122.8789530935173</v>
       </c>
       <c r="F12" t="n">
-        <v>12.19739141963564</v>
+        <v>122.8789530935173</v>
       </c>
       <c r="G12" t="n">
-        <v>12.19739141963564</v>
+        <v>122.8789530935173</v>
       </c>
       <c r="H12" t="n">
         <v>12.19739141963564</v>
@@ -5118,52 +5118,52 @@
         <v>12.19739141963564</v>
       </c>
       <c r="J12" t="n">
-        <v>37.22618539203681</v>
+        <v>12.19739141963564</v>
       </c>
       <c r="K12" t="n">
-        <v>37.22618539203681</v>
+        <v>12.19739141963564</v>
       </c>
       <c r="L12" t="n">
-        <v>188.1689042100278</v>
+        <v>12.19739141963564</v>
       </c>
       <c r="M12" t="n">
-        <v>203.7745929006856</v>
+        <v>52.83187408269464</v>
       </c>
       <c r="N12" t="n">
-        <v>354.7173117186766</v>
+        <v>203.7745929006857</v>
       </c>
       <c r="O12" t="n">
-        <v>354.7173117186766</v>
+        <v>354.7173117186768</v>
       </c>
       <c r="P12" t="n">
-        <v>505.6600305366675</v>
+        <v>505.6600305366679</v>
       </c>
       <c r="Q12" t="n">
-        <v>609.8695709817817</v>
+        <v>609.8695709817821</v>
       </c>
       <c r="R12" t="n">
-        <v>609.8695709817817</v>
+        <v>609.8695709817821</v>
       </c>
       <c r="S12" t="n">
-        <v>609.8695709817817</v>
+        <v>455.8621035621401</v>
       </c>
       <c r="T12" t="n">
-        <v>601.3554279882825</v>
+        <v>301.8546361424982</v>
       </c>
       <c r="U12" t="n">
-        <v>565.7009158581649</v>
+        <v>266.2001240123807</v>
       </c>
       <c r="V12" t="n">
-        <v>523.0996060356748</v>
+        <v>223.5988141898908</v>
       </c>
       <c r="W12" t="n">
-        <v>461.4130477167258</v>
+        <v>161.912255870942</v>
       </c>
       <c r="X12" t="n">
-        <v>446.1123459204456</v>
+        <v>146.6115540746619</v>
       </c>
       <c r="Y12" t="n">
-        <v>430.9028455647444</v>
+        <v>131.4020537189608</v>
       </c>
     </row>
     <row r="13">
@@ -5173,73 +5173,73 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>21.8300616937597</v>
+        <v>12.19739141963564</v>
       </c>
       <c r="C13" t="n">
-        <v>21.8300616937597</v>
+        <v>12.19739141963564</v>
       </c>
       <c r="D13" t="n">
-        <v>21.8300616937597</v>
+        <v>12.19739141963564</v>
       </c>
       <c r="E13" t="n">
-        <v>21.8300616937597</v>
+        <v>12.19739141963564</v>
       </c>
       <c r="F13" t="n">
-        <v>66.58226167196626</v>
+        <v>12.19739141963564</v>
       </c>
       <c r="G13" t="n">
-        <v>66.58226167196626</v>
+        <v>12.19739141963564</v>
       </c>
       <c r="H13" t="n">
-        <v>96.72935627495967</v>
+        <v>12.19739141963564</v>
       </c>
       <c r="I13" t="n">
-        <v>96.72935627495967</v>
+        <v>12.19739141963564</v>
       </c>
       <c r="J13" t="n">
-        <v>96.72935627495967</v>
+        <v>12.19739141963564</v>
       </c>
       <c r="K13" t="n">
-        <v>101.2482050807018</v>
+        <v>16.71624022537778</v>
       </c>
       <c r="L13" t="n">
-        <v>162.5572103698225</v>
+        <v>78.02524551449847</v>
       </c>
       <c r="M13" t="n">
-        <v>237.5880833848594</v>
+        <v>153.0561185295354</v>
       </c>
       <c r="N13" t="n">
-        <v>316.269506363699</v>
+        <v>231.7375415083749</v>
       </c>
       <c r="O13" t="n">
-        <v>372.9282399275041</v>
+        <v>288.3962750721801</v>
       </c>
       <c r="P13" t="n">
-        <v>397.8888923611433</v>
+        <v>313.3569275058193</v>
       </c>
       <c r="Q13" t="n">
-        <v>397.8888923611433</v>
+        <v>397.8888923611422</v>
       </c>
       <c r="R13" t="n">
-        <v>397.8888923611433</v>
+        <v>397.8888923611422</v>
       </c>
       <c r="S13" t="n">
-        <v>368.2260542031093</v>
+        <v>368.2260542031083</v>
       </c>
       <c r="T13" t="n">
-        <v>331.5256030529192</v>
+        <v>331.5256030529184</v>
       </c>
       <c r="U13" t="n">
-        <v>234.8779860670201</v>
+        <v>234.8779860670194</v>
       </c>
       <c r="V13" t="n">
-        <v>172.7442962703858</v>
+        <v>172.7442962703853</v>
       </c>
       <c r="W13" t="n">
-        <v>75.87792464267781</v>
+        <v>75.87792464267753</v>
       </c>
       <c r="X13" t="n">
-        <v>40.43917215391311</v>
+        <v>40.43917215391296</v>
       </c>
       <c r="Y13" t="n">
         <v>12.19739141963564</v>
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>311.231438780598</v>
+        <v>603.1407381207694</v>
       </c>
       <c r="C14" t="n">
-        <v>311.231438780598</v>
+        <v>449.1332707011273</v>
       </c>
       <c r="D14" t="n">
-        <v>311.231438780598</v>
+        <v>449.1332707011273</v>
       </c>
       <c r="E14" t="n">
-        <v>311.231438780598</v>
+        <v>295.1258032814853</v>
       </c>
       <c r="F14" t="n">
-        <v>311.231438780598</v>
+        <v>166.2048588392776</v>
       </c>
       <c r="G14" t="n">
-        <v>157.2239713609561</v>
+        <v>12.19739141963564</v>
       </c>
       <c r="H14" t="n">
         <v>12.19739141963564</v>
@@ -5279,49 +5279,49 @@
         <v>43.63189276835482</v>
       </c>
       <c r="K14" t="n">
-        <v>43.63189276835482</v>
+        <v>194.5746115863459</v>
       </c>
       <c r="L14" t="n">
-        <v>194.5746115863458</v>
+        <v>194.5746115863459</v>
       </c>
       <c r="M14" t="n">
-        <v>345.5173304043368</v>
+        <v>194.5746115863459</v>
       </c>
       <c r="N14" t="n">
-        <v>496.4600492223278</v>
+        <v>345.517330404337</v>
       </c>
       <c r="O14" t="n">
-        <v>609.8695709817817</v>
+        <v>413.7705015404168</v>
       </c>
       <c r="P14" t="n">
-        <v>609.8695709817817</v>
+        <v>564.7132203584079</v>
       </c>
       <c r="Q14" t="n">
-        <v>609.8695709817817</v>
+        <v>609.8695709817821</v>
       </c>
       <c r="R14" t="n">
-        <v>609.8695709817817</v>
+        <v>609.8695709817821</v>
       </c>
       <c r="S14" t="n">
-        <v>609.8695709817817</v>
+        <v>603.1407381207694</v>
       </c>
       <c r="T14" t="n">
-        <v>579.3477590371131</v>
+        <v>603.1407381207694</v>
       </c>
       <c r="U14" t="n">
-        <v>579.3477590371131</v>
+        <v>603.1407381207694</v>
       </c>
       <c r="V14" t="n">
-        <v>465.2389062002399</v>
+        <v>603.1407381207694</v>
       </c>
       <c r="W14" t="n">
-        <v>465.2389062002399</v>
+        <v>603.1407381207694</v>
       </c>
       <c r="X14" t="n">
-        <v>465.2389062002399</v>
+        <v>603.1407381207694</v>
       </c>
       <c r="Y14" t="n">
-        <v>311.231438780598</v>
+        <v>603.1407381207694</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>254.6900166403886</v>
+        <v>122.8789530935173</v>
       </c>
       <c r="C15" t="n">
-        <v>100.6825492207467</v>
+        <v>122.8789530935173</v>
       </c>
       <c r="D15" t="n">
-        <v>100.6825492207467</v>
+        <v>122.8789530935173</v>
       </c>
       <c r="E15" t="n">
-        <v>100.6825492207467</v>
+        <v>122.8789530935173</v>
       </c>
       <c r="F15" t="n">
-        <v>100.6825492207467</v>
+        <v>122.8789530935173</v>
       </c>
       <c r="G15" t="n">
-        <v>12.19739141963564</v>
+        <v>122.8789530935173</v>
       </c>
       <c r="H15" t="n">
         <v>12.19739141963564</v>
@@ -5355,52 +5355,52 @@
         <v>12.19739141963564</v>
       </c>
       <c r="J15" t="n">
-        <v>37.22618539203681</v>
+        <v>12.19739141963564</v>
       </c>
       <c r="K15" t="n">
-        <v>37.22618539203681</v>
+        <v>12.19739141963564</v>
       </c>
       <c r="L15" t="n">
-        <v>188.1689042100278</v>
+        <v>163.1401102376267</v>
       </c>
       <c r="M15" t="n">
-        <v>339.1116230280188</v>
+        <v>314.0828290556178</v>
       </c>
       <c r="N15" t="n">
-        <v>490.0543418460098</v>
+        <v>458.926852163791</v>
       </c>
       <c r="O15" t="n">
-        <v>609.8695709817817</v>
+        <v>609.8695709817821</v>
       </c>
       <c r="P15" t="n">
-        <v>609.8695709817817</v>
+        <v>609.8695709817821</v>
       </c>
       <c r="Q15" t="n">
-        <v>609.8695709817817</v>
+        <v>609.8695709817821</v>
       </c>
       <c r="R15" t="n">
-        <v>525.9776511581184</v>
+        <v>525.9776511581188</v>
       </c>
       <c r="S15" t="n">
-        <v>525.9776511581184</v>
+        <v>525.9776511581188</v>
       </c>
       <c r="T15" t="n">
-        <v>517.4635081646192</v>
+        <v>517.4635081646194</v>
       </c>
       <c r="U15" t="n">
-        <v>481.8089960345017</v>
+        <v>481.8089960345018</v>
       </c>
       <c r="V15" t="n">
         <v>439.2076862120117</v>
       </c>
       <c r="W15" t="n">
-        <v>285.2002187923698</v>
+        <v>377.5211278930626</v>
       </c>
       <c r="X15" t="n">
-        <v>269.8995169960897</v>
+        <v>362.2204260967824</v>
       </c>
       <c r="Y15" t="n">
-        <v>254.6900166403886</v>
+        <v>276.8864205131592</v>
       </c>
     </row>
     <row r="16">
@@ -5410,73 +5410,73 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>22.8827685604263</v>
+        <v>12.19739141963564</v>
       </c>
       <c r="C16" t="n">
-        <v>22.8827685604263</v>
+        <v>12.19739141963564</v>
       </c>
       <c r="D16" t="n">
-        <v>22.8827685604263</v>
+        <v>53.78711065251388</v>
       </c>
       <c r="E16" t="n">
-        <v>22.8827685604263</v>
+        <v>96.72935627495978</v>
       </c>
       <c r="F16" t="n">
-        <v>22.8827685604263</v>
+        <v>96.72935627495978</v>
       </c>
       <c r="G16" t="n">
-        <v>22.8827685604263</v>
+        <v>96.72935627495978</v>
       </c>
       <c r="H16" t="n">
-        <v>22.8827685604263</v>
+        <v>96.72935627495978</v>
       </c>
       <c r="I16" t="n">
-        <v>22.8827685604263</v>
+        <v>96.72935627495978</v>
       </c>
       <c r="J16" t="n">
-        <v>22.8827685604263</v>
+        <v>96.72935627495978</v>
       </c>
       <c r="K16" t="n">
-        <v>27.40161736616844</v>
+        <v>101.2482050807019</v>
       </c>
       <c r="L16" t="n">
-        <v>88.71062265528913</v>
+        <v>162.5572103698226</v>
       </c>
       <c r="M16" t="n">
-        <v>163.7414956703261</v>
+        <v>237.5880833848595</v>
       </c>
       <c r="N16" t="n">
-        <v>242.4229186491656</v>
+        <v>316.2695063636991</v>
       </c>
       <c r="O16" t="n">
-        <v>299.0816522129708</v>
+        <v>372.9282399275043</v>
       </c>
       <c r="P16" t="n">
-        <v>324.04230464661</v>
+        <v>397.8888923611434</v>
       </c>
       <c r="Q16" t="n">
-        <v>374.4091163960958</v>
+        <v>397.8888923611434</v>
       </c>
       <c r="R16" t="n">
-        <v>397.8888923611426</v>
+        <v>397.8888923611434</v>
       </c>
       <c r="S16" t="n">
-        <v>368.2260542031087</v>
+        <v>368.2260542031094</v>
       </c>
       <c r="T16" t="n">
-        <v>331.5256030529187</v>
+        <v>331.5256030529193</v>
       </c>
       <c r="U16" t="n">
-        <v>234.8779860670197</v>
+        <v>234.8779860670202</v>
       </c>
       <c r="V16" t="n">
-        <v>172.7442962703855</v>
+        <v>172.7442962703859</v>
       </c>
       <c r="W16" t="n">
-        <v>75.87792464267763</v>
+        <v>75.87792464267787</v>
       </c>
       <c r="X16" t="n">
-        <v>40.43917215391301</v>
+        <v>40.43917215391313</v>
       </c>
       <c r="Y16" t="n">
         <v>12.19739141963564</v>
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>374.4338528248971</v>
+        <v>374.4338528248975</v>
       </c>
       <c r="C17" t="n">
-        <v>325.1914868360482</v>
+        <v>325.1914868360485</v>
       </c>
       <c r="D17" t="n">
-        <v>286.6459391808605</v>
+        <v>286.6459391808607</v>
       </c>
       <c r="E17" t="n">
-        <v>220.5778375341793</v>
+        <v>220.5778375341791</v>
       </c>
       <c r="F17" t="n">
-        <v>129.3120836961343</v>
+        <v>129.3120836961344</v>
       </c>
       <c r="G17" t="n">
-        <v>30.05461881864607</v>
+        <v>30.05461881864613</v>
       </c>
       <c r="H17" t="n">
         <v>12.19739141963564</v>
@@ -5513,52 +5513,52 @@
         <v>12.19739141963564</v>
       </c>
       <c r="J17" t="n">
-        <v>12.19739141963564</v>
+        <v>43.63189276835482</v>
       </c>
       <c r="K17" t="n">
-        <v>12.19739141963564</v>
+        <v>43.63189276835482</v>
       </c>
       <c r="L17" t="n">
-        <v>163.1401102376266</v>
+        <v>43.63189276835482</v>
       </c>
       <c r="M17" t="n">
-        <v>163.1401102376266</v>
+        <v>111.8850639044346</v>
       </c>
       <c r="N17" t="n">
-        <v>314.0828290556176</v>
+        <v>262.8277827224257</v>
       </c>
       <c r="O17" t="n">
-        <v>465.0255478736086</v>
+        <v>413.7705015404168</v>
       </c>
       <c r="P17" t="n">
-        <v>609.8695709817817</v>
+        <v>564.7132203584079</v>
       </c>
       <c r="Q17" t="n">
-        <v>609.8695709817817</v>
+        <v>609.8695709817821</v>
       </c>
       <c r="R17" t="n">
-        <v>609.8695709817817</v>
+        <v>609.8695709817821</v>
       </c>
       <c r="S17" t="n">
-        <v>609.8695709817817</v>
+        <v>609.8695709817821</v>
       </c>
       <c r="T17" t="n">
-        <v>609.8695709817817</v>
+        <v>609.8695709817821</v>
       </c>
       <c r="U17" t="n">
-        <v>609.8695709817817</v>
+        <v>609.8695709817821</v>
       </c>
       <c r="V17" t="n">
-        <v>598.5268345897734</v>
+        <v>598.5268345897741</v>
       </c>
       <c r="W17" t="n">
-        <v>565.4783302712221</v>
+        <v>565.4783302712226</v>
       </c>
       <c r="X17" t="n">
-        <v>511.7327229617051</v>
+        <v>511.7327229617054</v>
       </c>
       <c r="Y17" t="n">
-        <v>441.3135419374562</v>
+        <v>441.3135419374565</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>609.8695709817817</v>
+        <v>241.850387871082</v>
       </c>
       <c r="C18" t="n">
-        <v>461.6738264736438</v>
+        <v>241.850387871082</v>
       </c>
       <c r="D18" t="n">
-        <v>312.7394168123925</v>
+        <v>92.91597820983078</v>
       </c>
       <c r="E18" t="n">
-        <v>158.7319493927507</v>
+        <v>92.91597820983078</v>
       </c>
       <c r="F18" t="n">
-        <v>12.19739141963564</v>
+        <v>92.91597820983078</v>
       </c>
       <c r="G18" t="n">
-        <v>12.19739141963564</v>
+        <v>92.91597820983078</v>
       </c>
       <c r="H18" t="n">
-        <v>12.19739141963564</v>
+        <v>92.91597820983078</v>
       </c>
       <c r="I18" t="n">
         <v>12.19739141963564</v>
@@ -5595,49 +5595,49 @@
         <v>12.19739141963564</v>
       </c>
       <c r="K18" t="n">
-        <v>12.19739141963564</v>
+        <v>163.1401102376267</v>
       </c>
       <c r="L18" t="n">
-        <v>163.1401102376266</v>
+        <v>163.1401102376267</v>
       </c>
       <c r="M18" t="n">
-        <v>314.0828290556176</v>
+        <v>314.0828290556178</v>
       </c>
       <c r="N18" t="n">
-        <v>465.0255478736086</v>
+        <v>458.926852163791</v>
       </c>
       <c r="O18" t="n">
-        <v>609.8695709817817</v>
+        <v>458.926852163791</v>
       </c>
       <c r="P18" t="n">
-        <v>609.8695709817817</v>
+        <v>609.8695709817821</v>
       </c>
       <c r="Q18" t="n">
-        <v>609.8695709817817</v>
+        <v>609.8695709817821</v>
       </c>
       <c r="R18" t="n">
-        <v>609.8695709817817</v>
+        <v>609.8695709817821</v>
       </c>
       <c r="S18" t="n">
-        <v>609.8695709817817</v>
+        <v>609.8695709817821</v>
       </c>
       <c r="T18" t="n">
-        <v>609.8695709817817</v>
+        <v>609.8695709817821</v>
       </c>
       <c r="U18" t="n">
-        <v>609.8695709817817</v>
+        <v>455.8621035621401</v>
       </c>
       <c r="V18" t="n">
-        <v>609.8695709817817</v>
+        <v>455.8621035621401</v>
       </c>
       <c r="W18" t="n">
-        <v>609.8695709817817</v>
+        <v>301.8546361424982</v>
       </c>
       <c r="X18" t="n">
-        <v>609.8695709817817</v>
+        <v>301.8546361424982</v>
       </c>
       <c r="Y18" t="n">
-        <v>609.8695709817817</v>
+        <v>241.850387871082</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>245.8601228647235</v>
+        <v>237.9184880466</v>
       </c>
       <c r="C19" t="n">
-        <v>245.8601228647235</v>
+        <v>237.9184880466</v>
       </c>
       <c r="D19" t="n">
-        <v>245.8601228647235</v>
+        <v>237.9184880466</v>
       </c>
       <c r="E19" t="n">
-        <v>245.8601228647235</v>
+        <v>90.00539446420686</v>
       </c>
       <c r="F19" t="n">
-        <v>245.8601228647235</v>
+        <v>90.00539446420686</v>
       </c>
       <c r="G19" t="n">
-        <v>245.8601228647235</v>
+        <v>90.00539446420686</v>
       </c>
       <c r="H19" t="n">
-        <v>240.0101561110289</v>
+        <v>90.00539446420686</v>
       </c>
       <c r="I19" t="n">
         <v>90.00539446420686</v>
@@ -5716,7 +5716,7 @@
         <v>245.8601228647235</v>
       </c>
       <c r="Y19" t="n">
-        <v>245.8601228647235</v>
+        <v>237.9184880466</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>374.4338528248974</v>
+        <v>374.4338528248977</v>
       </c>
       <c r="C20" t="n">
-        <v>325.1914868360485</v>
+        <v>325.1914868360487</v>
       </c>
       <c r="D20" t="n">
-        <v>286.6459391808608</v>
+        <v>286.645939180861</v>
       </c>
       <c r="E20" t="n">
-        <v>220.5778375341793</v>
+        <v>220.5778375341795</v>
       </c>
       <c r="F20" t="n">
-        <v>129.3120836961346</v>
+        <v>129.3120836961348</v>
       </c>
       <c r="G20" t="n">
-        <v>30.05461881864601</v>
+        <v>30.05461881864608</v>
       </c>
       <c r="H20" t="n">
         <v>12.19739141963564</v>
@@ -5750,52 +5750,52 @@
         <v>12.19739141963564</v>
       </c>
       <c r="J20" t="n">
-        <v>12.19739141963564</v>
+        <v>43.63189276835482</v>
       </c>
       <c r="K20" t="n">
-        <v>12.19739141963564</v>
+        <v>43.63189276835482</v>
       </c>
       <c r="L20" t="n">
-        <v>12.19739141963564</v>
+        <v>43.63189276835482</v>
       </c>
       <c r="M20" t="n">
-        <v>163.1401102376266</v>
+        <v>111.8850639044346</v>
       </c>
       <c r="N20" t="n">
-        <v>307.9841333457997</v>
+        <v>262.8277827224257</v>
       </c>
       <c r="O20" t="n">
-        <v>458.9268521637907</v>
+        <v>413.7705015404168</v>
       </c>
       <c r="P20" t="n">
-        <v>609.8695709817817</v>
+        <v>564.7132203584079</v>
       </c>
       <c r="Q20" t="n">
-        <v>609.8695709817817</v>
+        <v>609.8695709817821</v>
       </c>
       <c r="R20" t="n">
-        <v>609.8695709817817</v>
+        <v>609.8695709817821</v>
       </c>
       <c r="S20" t="n">
-        <v>609.8695709817817</v>
+        <v>609.8695709817821</v>
       </c>
       <c r="T20" t="n">
-        <v>609.8695709817817</v>
+        <v>609.8695709817821</v>
       </c>
       <c r="U20" t="n">
-        <v>609.8695709817817</v>
+        <v>609.8695709817821</v>
       </c>
       <c r="V20" t="n">
-        <v>598.5268345897737</v>
+        <v>598.5268345897741</v>
       </c>
       <c r="W20" t="n">
-        <v>565.4783302712224</v>
+        <v>565.4783302712227</v>
       </c>
       <c r="X20" t="n">
-        <v>511.7327229617053</v>
+        <v>511.7327229617056</v>
       </c>
       <c r="Y20" t="n">
-        <v>441.3135419374564</v>
+        <v>441.3135419374566</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>609.8695709817817</v>
+        <v>166.2048588392776</v>
       </c>
       <c r="C21" t="n">
-        <v>455.8621035621399</v>
+        <v>166.2048588392776</v>
       </c>
       <c r="D21" t="n">
-        <v>306.9276939008886</v>
+        <v>166.2048588392776</v>
       </c>
       <c r="E21" t="n">
-        <v>158.7319493927507</v>
+        <v>12.19739141963564</v>
       </c>
       <c r="F21" t="n">
         <v>12.19739141963564</v>
@@ -5829,52 +5829,52 @@
         <v>12.19739141963564</v>
       </c>
       <c r="J21" t="n">
-        <v>12.19739141963564</v>
+        <v>37.22618539203682</v>
       </c>
       <c r="K21" t="n">
-        <v>12.19739141963564</v>
+        <v>188.1689042100279</v>
       </c>
       <c r="L21" t="n">
-        <v>163.1401102376266</v>
+        <v>188.1689042100279</v>
       </c>
       <c r="M21" t="n">
-        <v>314.0828290556176</v>
+        <v>339.111623028019</v>
       </c>
       <c r="N21" t="n">
-        <v>465.0255478736086</v>
+        <v>354.7173117186768</v>
       </c>
       <c r="O21" t="n">
-        <v>609.8695709817817</v>
+        <v>354.7173117186768</v>
       </c>
       <c r="P21" t="n">
-        <v>609.8695709817817</v>
+        <v>505.6600305366679</v>
       </c>
       <c r="Q21" t="n">
-        <v>609.8695709817817</v>
+        <v>609.8695709817821</v>
       </c>
       <c r="R21" t="n">
-        <v>609.8695709817817</v>
+        <v>609.8695709817821</v>
       </c>
       <c r="S21" t="n">
-        <v>609.8695709817817</v>
+        <v>609.8695709817821</v>
       </c>
       <c r="T21" t="n">
-        <v>609.8695709817817</v>
+        <v>609.8695709817821</v>
       </c>
       <c r="U21" t="n">
-        <v>609.8695709817817</v>
+        <v>455.8621035621401</v>
       </c>
       <c r="V21" t="n">
-        <v>609.8695709817817</v>
+        <v>301.8546361424982</v>
       </c>
       <c r="W21" t="n">
-        <v>609.8695709817817</v>
+        <v>166.2048588392776</v>
       </c>
       <c r="X21" t="n">
-        <v>609.8695709817817</v>
+        <v>166.2048588392776</v>
       </c>
       <c r="Y21" t="n">
-        <v>609.8695709817817</v>
+        <v>166.2048588392776</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>236.8953419621172</v>
+        <v>162.3140308319714</v>
       </c>
       <c r="C22" t="n">
-        <v>236.8953419621172</v>
+        <v>162.3140308319714</v>
       </c>
       <c r="D22" t="n">
-        <v>236.8953419621172</v>
+        <v>12.19739141963564</v>
       </c>
       <c r="E22" t="n">
-        <v>236.8953419621172</v>
+        <v>12.19739141963564</v>
       </c>
       <c r="F22" t="n">
-        <v>90.00539446420686</v>
+        <v>12.19739141963564</v>
       </c>
       <c r="G22" t="n">
-        <v>90.00539446420686</v>
+        <v>12.19739141963564</v>
       </c>
       <c r="H22" t="n">
-        <v>90.00539446420686</v>
+        <v>12.19739141963564</v>
       </c>
       <c r="I22" t="n">
-        <v>90.00539446420686</v>
+        <v>12.19739141963564</v>
       </c>
       <c r="J22" t="n">
         <v>12.19739141963564</v>
@@ -5932,28 +5932,28 @@
         <v>313.3569275058193</v>
       </c>
       <c r="R22" t="n">
-        <v>313.3569275058193</v>
+        <v>162.3140308319714</v>
       </c>
       <c r="S22" t="n">
-        <v>313.3569275058193</v>
+        <v>162.3140308319714</v>
       </c>
       <c r="T22" t="n">
-        <v>313.3569275058193</v>
+        <v>162.3140308319714</v>
       </c>
       <c r="U22" t="n">
-        <v>313.3569275058193</v>
+        <v>162.3140308319714</v>
       </c>
       <c r="V22" t="n">
-        <v>313.3569275058193</v>
+        <v>162.3140308319714</v>
       </c>
       <c r="W22" t="n">
-        <v>236.8953419621172</v>
+        <v>162.3140308319714</v>
       </c>
       <c r="X22" t="n">
-        <v>236.8953419621172</v>
+        <v>162.3140308319714</v>
       </c>
       <c r="Y22" t="n">
-        <v>236.8953419621172</v>
+        <v>162.3140308319714</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>374.4338528248977</v>
+        <v>374.4338528248985</v>
       </c>
       <c r="C23" t="n">
-        <v>325.1914868360487</v>
+        <v>325.1914868360494</v>
       </c>
       <c r="D23" t="n">
-        <v>286.645939180861</v>
+        <v>286.6459391808615</v>
       </c>
       <c r="E23" t="n">
-        <v>220.5778375341796</v>
+        <v>220.5778375341799</v>
       </c>
       <c r="F23" t="n">
-        <v>129.3120836961348</v>
+        <v>129.312083696135</v>
       </c>
       <c r="G23" t="n">
-        <v>30.05461881864601</v>
+        <v>30.05461881864622</v>
       </c>
       <c r="H23" t="n">
-        <v>12.19739141963564</v>
+        <v>12.19739141963567</v>
       </c>
       <c r="I23" t="n">
-        <v>12.19739141963564</v>
+        <v>12.19739141963567</v>
       </c>
       <c r="J23" t="n">
-        <v>12.19739141963564</v>
+        <v>12.19739141963567</v>
       </c>
       <c r="K23" t="n">
-        <v>12.19739141963564</v>
+        <v>163.1401102376271</v>
       </c>
       <c r="L23" t="n">
-        <v>12.19739141963564</v>
+        <v>163.1401102376271</v>
       </c>
       <c r="M23" t="n">
-        <v>111.8850639044345</v>
+        <v>163.1401102376271</v>
       </c>
       <c r="N23" t="n">
-        <v>262.8277827224255</v>
+        <v>314.0828290556185</v>
       </c>
       <c r="O23" t="n">
-        <v>413.7705015404165</v>
+        <v>413.7705015404179</v>
       </c>
       <c r="P23" t="n">
-        <v>564.7132203584075</v>
+        <v>564.7132203584093</v>
       </c>
       <c r="Q23" t="n">
-        <v>609.8695709817817</v>
+        <v>609.8695709817836</v>
       </c>
       <c r="R23" t="n">
-        <v>609.8695709817817</v>
+        <v>609.8695709817836</v>
       </c>
       <c r="S23" t="n">
-        <v>609.8695709817817</v>
+        <v>609.8695709817836</v>
       </c>
       <c r="T23" t="n">
-        <v>609.8695709817817</v>
+        <v>609.8695709817836</v>
       </c>
       <c r="U23" t="n">
-        <v>609.8695709817817</v>
+        <v>609.8695709817836</v>
       </c>
       <c r="V23" t="n">
-        <v>598.5268345897739</v>
+        <v>598.5268345897755</v>
       </c>
       <c r="W23" t="n">
-        <v>565.4783302712226</v>
+        <v>565.478330271224</v>
       </c>
       <c r="X23" t="n">
-        <v>511.7327229617055</v>
+        <v>511.7327229617067</v>
       </c>
       <c r="Y23" t="n">
-        <v>441.3135419374566</v>
+        <v>441.3135419374577</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>92.91597820983078</v>
+        <v>92.91597820983083</v>
       </c>
       <c r="C24" t="n">
-        <v>92.91597820983078</v>
+        <v>92.91597820983083</v>
       </c>
       <c r="D24" t="n">
-        <v>92.91597820983078</v>
+        <v>92.91597820983083</v>
       </c>
       <c r="E24" t="n">
-        <v>92.91597820983078</v>
+        <v>92.91597820983083</v>
       </c>
       <c r="F24" t="n">
-        <v>92.91597820983078</v>
+        <v>92.91597820983083</v>
       </c>
       <c r="G24" t="n">
-        <v>92.91597820983078</v>
+        <v>92.91597820983083</v>
       </c>
       <c r="H24" t="n">
-        <v>92.91597820983078</v>
+        <v>92.91597820983083</v>
       </c>
       <c r="I24" t="n">
-        <v>12.19739141963564</v>
+        <v>12.19739141963567</v>
       </c>
       <c r="J24" t="n">
-        <v>37.22618539203681</v>
+        <v>37.22618539203685</v>
       </c>
       <c r="K24" t="n">
-        <v>188.1689042100278</v>
+        <v>188.1689042100283</v>
       </c>
       <c r="L24" t="n">
-        <v>339.1116230280188</v>
+        <v>339.1116230280197</v>
       </c>
       <c r="M24" t="n">
-        <v>490.0543418460098</v>
+        <v>339.1116230280197</v>
       </c>
       <c r="N24" t="n">
-        <v>609.8695709817817</v>
+        <v>458.9268521637921</v>
       </c>
       <c r="O24" t="n">
-        <v>609.8695709817817</v>
+        <v>609.8695709817836</v>
       </c>
       <c r="P24" t="n">
-        <v>609.8695709817817</v>
+        <v>609.8695709817836</v>
       </c>
       <c r="Q24" t="n">
-        <v>609.8695709817817</v>
+        <v>609.8695709817836</v>
       </c>
       <c r="R24" t="n">
-        <v>609.8695709817817</v>
+        <v>554.9383804687578</v>
       </c>
       <c r="S24" t="n">
-        <v>554.9383804687565</v>
+        <v>400.9309130491155</v>
       </c>
       <c r="T24" t="n">
-        <v>400.9309130491146</v>
+        <v>246.9234456294732</v>
       </c>
       <c r="U24" t="n">
-        <v>246.9234456294727</v>
+        <v>92.91597820983083</v>
       </c>
       <c r="V24" t="n">
-        <v>246.9234456294727</v>
+        <v>92.91597820983083</v>
       </c>
       <c r="W24" t="n">
-        <v>246.9234456294727</v>
+        <v>92.91597820983083</v>
       </c>
       <c r="X24" t="n">
-        <v>246.9234456294727</v>
+        <v>92.91597820983083</v>
       </c>
       <c r="Y24" t="n">
-        <v>246.9234456294727</v>
+        <v>92.91597820983083</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>313.3569275058193</v>
+        <v>166.204858839278</v>
       </c>
       <c r="C25" t="n">
-        <v>313.3569275058193</v>
+        <v>12.19739141963567</v>
       </c>
       <c r="D25" t="n">
-        <v>313.3569275058193</v>
+        <v>12.19739141963567</v>
       </c>
       <c r="E25" t="n">
-        <v>165.4438339234262</v>
+        <v>12.19739141963567</v>
       </c>
       <c r="F25" t="n">
-        <v>90.00539446420686</v>
+        <v>12.19739141963567</v>
       </c>
       <c r="G25" t="n">
-        <v>90.00539446420686</v>
+        <v>12.19739141963567</v>
       </c>
       <c r="H25" t="n">
-        <v>90.00539446420686</v>
+        <v>12.19739141963567</v>
       </c>
       <c r="I25" t="n">
-        <v>90.00539446420686</v>
+        <v>12.19739141963567</v>
       </c>
       <c r="J25" t="n">
-        <v>12.19739141963564</v>
+        <v>12.19739141963567</v>
       </c>
       <c r="K25" t="n">
-        <v>16.71624022537778</v>
+        <v>16.71624022537781</v>
       </c>
       <c r="L25" t="n">
-        <v>78.02524551449847</v>
+        <v>78.02524551449849</v>
       </c>
       <c r="M25" t="n">
-        <v>153.0561185295354</v>
+        <v>153.0561185295355</v>
       </c>
       <c r="N25" t="n">
-        <v>231.7375415083749</v>
+        <v>231.737541508375</v>
       </c>
       <c r="O25" t="n">
-        <v>288.3962750721801</v>
+        <v>288.3962750721802</v>
       </c>
       <c r="P25" t="n">
-        <v>313.3569275058193</v>
+        <v>313.3569275058194</v>
       </c>
       <c r="Q25" t="n">
-        <v>313.3569275058193</v>
+        <v>245.8601228647236</v>
       </c>
       <c r="R25" t="n">
-        <v>313.3569275058193</v>
+        <v>245.8601228647236</v>
       </c>
       <c r="S25" t="n">
-        <v>313.3569275058193</v>
+        <v>166.204858839278</v>
       </c>
       <c r="T25" t="n">
-        <v>313.3569275058193</v>
+        <v>166.204858839278</v>
       </c>
       <c r="U25" t="n">
-        <v>313.3569275058193</v>
+        <v>166.204858839278</v>
       </c>
       <c r="V25" t="n">
-        <v>313.3569275058193</v>
+        <v>166.204858839278</v>
       </c>
       <c r="W25" t="n">
-        <v>313.3569275058193</v>
+        <v>166.204858839278</v>
       </c>
       <c r="X25" t="n">
-        <v>313.3569275058193</v>
+        <v>166.204858839278</v>
       </c>
       <c r="Y25" t="n">
-        <v>313.3569275058193</v>
+        <v>166.204858839278</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6200,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1413.236109846079</v>
+        <v>1413.236109846078</v>
       </c>
       <c r="C26" t="n">
-        <v>1203.259823347722</v>
+        <v>1203.259823347721</v>
       </c>
       <c r="D26" t="n">
-        <v>1003.980355183026</v>
+        <v>1003.980355183025</v>
       </c>
       <c r="E26" t="n">
-        <v>777.1783330268372</v>
+        <v>777.1783330268355</v>
       </c>
       <c r="F26" t="n">
-        <v>525.1786586792846</v>
+        <v>525.1786586792826</v>
       </c>
       <c r="G26" t="n">
-        <v>265.1872732922881</v>
+        <v>265.1872732922862</v>
       </c>
       <c r="H26" t="n">
-        <v>86.59612538377002</v>
+        <v>86.59612538377033</v>
       </c>
       <c r="I26" t="n">
-        <v>53.03155741657225</v>
+        <v>53.03155741657226</v>
       </c>
       <c r="J26" t="n">
-        <v>240.2884632215495</v>
+        <v>240.2884632215493</v>
       </c>
       <c r="K26" t="n">
-        <v>563.967840893362</v>
+        <v>563.9678408933614</v>
       </c>
       <c r="L26" t="n">
-        <v>980.3082910946373</v>
+        <v>980.3082910946364</v>
       </c>
       <c r="M26" t="n">
-        <v>1442.613763368653</v>
+        <v>1442.613763368652</v>
       </c>
       <c r="N26" t="n">
-        <v>1739.424050096072</v>
+        <v>1895.246454552328</v>
       </c>
       <c r="O26" t="n">
-        <v>2130.328353929558</v>
+        <v>2131.814131893755</v>
       </c>
       <c r="P26" t="n">
-        <v>2449.113337784785</v>
+        <v>2450.599115748981</v>
       </c>
       <c r="Q26" t="n">
-        <v>2612.105380934574</v>
+        <v>2651.577870828613</v>
       </c>
       <c r="R26" t="n">
         <v>2651.577870828613</v>
@@ -6254,13 +6254,13 @@
         <v>2611.284470000402</v>
       </c>
       <c r="T26" t="n">
-        <v>2547.198090088536</v>
+        <v>2547.198090088535</v>
       </c>
       <c r="U26" t="n">
-        <v>2452.341430550502</v>
+        <v>2452.341430550503</v>
       </c>
       <c r="V26" t="n">
-        <v>2280.264773648986</v>
+        <v>2280.264773648987</v>
       </c>
       <c r="W26" t="n">
         <v>2086.482348820927</v>
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>641.3553420458957</v>
+        <v>959.3278029300045</v>
       </c>
       <c r="C27" t="n">
-        <v>466.9023127647687</v>
+        <v>784.8747736488775</v>
       </c>
       <c r="D27" t="n">
-        <v>466.9023127647687</v>
+        <v>635.9403639876263</v>
       </c>
       <c r="E27" t="n">
-        <v>466.6510882013682</v>
+        <v>476.7029089821708</v>
       </c>
       <c r="F27" t="n">
-        <v>320.1165302282532</v>
+        <v>330.1683510090558</v>
       </c>
       <c r="G27" t="n">
         <v>244.431705880649</v>
@@ -6300,7 +6300,7 @@
         <v>133.7501442067674</v>
       </c>
       <c r="I27" t="n">
-        <v>53.03155741657225</v>
+        <v>53.03155741657226</v>
       </c>
       <c r="J27" t="n">
         <v>78.06035138897343</v>
@@ -6330,25 +6330,25 @@
         <v>1994.118197793106</v>
       </c>
       <c r="S27" t="n">
-        <v>1984.855964496462</v>
+        <v>1825.869734054407</v>
       </c>
       <c r="T27" t="n">
-        <v>1942.777253535765</v>
+        <v>1783.79102309371</v>
       </c>
       <c r="U27" t="n">
-        <v>1714.571942996395</v>
+        <v>1555.58571255434</v>
       </c>
       <c r="V27" t="n">
         <v>1479.419834764652</v>
       </c>
       <c r="W27" t="n">
-        <v>1225.18247803645</v>
+        <v>1384.168708478505</v>
       </c>
       <c r="X27" t="n">
-        <v>1017.330977830918</v>
+        <v>1335.303438715026</v>
       </c>
       <c r="Y27" t="n">
-        <v>809.5706790659638</v>
+        <v>1127.543139950073</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>62.98150990242418</v>
+        <v>62.98150990242448</v>
       </c>
       <c r="C28" t="n">
-        <v>53.03155741657225</v>
+        <v>53.03155741657226</v>
       </c>
       <c r="D28" t="n">
-        <v>61.7246435848001</v>
+        <v>61.72464358479983</v>
       </c>
       <c r="E28" t="n">
-        <v>72.57742502095471</v>
+        <v>72.57742502095415</v>
       </c>
       <c r="F28" t="n">
-        <v>84.43299193451085</v>
+        <v>84.43299193451001</v>
       </c>
       <c r="G28" t="n">
-        <v>73.96466287003679</v>
+        <v>73.96466287003567</v>
       </c>
       <c r="H28" t="n">
-        <v>71.15929764030818</v>
+        <v>71.15929764030678</v>
       </c>
       <c r="I28" t="n">
-        <v>79.96203520651603</v>
+        <v>79.96203520651434</v>
       </c>
       <c r="J28" t="n">
-        <v>159.5248158787899</v>
+        <v>159.5248158787879</v>
       </c>
       <c r="K28" t="n">
-        <v>164.043664684532</v>
+        <v>164.04366468453</v>
       </c>
       <c r="L28" t="n">
-        <v>225.3526699736527</v>
+        <v>225.3526699736507</v>
       </c>
       <c r="M28" t="n">
-        <v>310.1032787851519</v>
+        <v>300.3835429886877</v>
       </c>
       <c r="N28" t="n">
-        <v>388.7847017639914</v>
+        <v>388.7847017639947</v>
       </c>
       <c r="O28" t="n">
-        <v>601.2658397840546</v>
+        <v>601.2658397840577</v>
       </c>
       <c r="P28" t="n">
-        <v>626.2264922176938</v>
+        <v>626.2264922176969</v>
       </c>
       <c r="Q28" t="n">
-        <v>715.8952784452139</v>
+        <v>715.8952784452167</v>
       </c>
       <c r="R28" t="n">
-        <v>706.2872210025001</v>
+        <v>706.2872210025026</v>
       </c>
       <c r="S28" t="n">
-        <v>643.0598148772685</v>
+        <v>643.0598148772707</v>
       </c>
       <c r="T28" t="n">
-        <v>572.7947957598808</v>
+        <v>572.7947957598827</v>
       </c>
       <c r="U28" t="n">
-        <v>442.582610806784</v>
+        <v>442.5826108067856</v>
       </c>
       <c r="V28" t="n">
-        <v>346.8843530429521</v>
+        <v>346.8843530429534</v>
       </c>
       <c r="W28" t="n">
-        <v>216.4534134480464</v>
+        <v>216.4534134480475</v>
       </c>
       <c r="X28" t="n">
-        <v>147.450092992084</v>
+        <v>147.4500929920849</v>
       </c>
       <c r="Y28" t="n">
-        <v>85.64374429060891</v>
+        <v>85.64374429060948</v>
       </c>
     </row>
     <row r="29">
@@ -6437,49 +6437,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1413.236109846079</v>
+        <v>1413.236109846078</v>
       </c>
       <c r="C29" t="n">
-        <v>1203.259823347723</v>
+        <v>1203.259823347722</v>
       </c>
       <c r="D29" t="n">
-        <v>1003.980355183027</v>
+        <v>1003.980355183026</v>
       </c>
       <c r="E29" t="n">
-        <v>777.1783330268378</v>
+        <v>777.178333026837</v>
       </c>
       <c r="F29" t="n">
-        <v>525.1786586792851</v>
+        <v>525.1786586792841</v>
       </c>
       <c r="G29" t="n">
-        <v>265.1872732922889</v>
+        <v>265.187273292288</v>
       </c>
       <c r="H29" t="n">
-        <v>86.59612538377007</v>
+        <v>86.59612538377006</v>
       </c>
       <c r="I29" t="n">
-        <v>53.03155741657225</v>
+        <v>53.03155741657226</v>
       </c>
       <c r="J29" t="n">
-        <v>240.2884632215494</v>
+        <v>202.3017512917072</v>
       </c>
       <c r="K29" t="n">
-        <v>525.9811289635193</v>
+        <v>525.9811289635196</v>
       </c>
       <c r="L29" t="n">
-        <v>942.3215791647945</v>
+        <v>942.3215791647948</v>
       </c>
       <c r="M29" t="n">
-        <v>1248.804646982552</v>
+        <v>1404.627051438811</v>
       </c>
       <c r="N29" t="n">
-        <v>1701.437338166229</v>
+        <v>1857.259742622487</v>
       </c>
       <c r="O29" t="n">
         <v>2092.341641999716</v>
       </c>
       <c r="P29" t="n">
-        <v>2411.126625854941</v>
+        <v>2411.126625854942</v>
       </c>
       <c r="Q29" t="n">
         <v>2612.105380934574</v>
@@ -6488,25 +6488,25 @@
         <v>2651.577870828613</v>
       </c>
       <c r="S29" t="n">
-        <v>2611.284470000402</v>
+        <v>2611.284470000401</v>
       </c>
       <c r="T29" t="n">
-        <v>2547.198090088535</v>
+        <v>2547.198090088534</v>
       </c>
       <c r="U29" t="n">
-        <v>2452.341430550503</v>
+        <v>2452.341430550502</v>
       </c>
       <c r="V29" t="n">
-        <v>2280.264773648987</v>
+        <v>2280.264773648986</v>
       </c>
       <c r="W29" t="n">
-        <v>2086.482348820928</v>
+        <v>2086.482348820927</v>
       </c>
       <c r="X29" t="n">
-        <v>1872.002821001903</v>
+        <v>1872.002821001902</v>
       </c>
       <c r="Y29" t="n">
-        <v>1640.849719468146</v>
+        <v>1640.849719468145</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>535.6564513644061</v>
+        <v>724.6567481403466</v>
       </c>
       <c r="C30" t="n">
-        <v>361.203422083279</v>
+        <v>550.2037188592196</v>
       </c>
       <c r="D30" t="n">
-        <v>212.2690124220277</v>
+        <v>550.2037188592196</v>
       </c>
       <c r="E30" t="n">
-        <v>53.03155741657225</v>
+        <v>390.9662638537641</v>
       </c>
       <c r="F30" t="n">
-        <v>53.03155741657225</v>
+        <v>244.431705880649</v>
       </c>
       <c r="G30" t="n">
-        <v>53.03155741657225</v>
+        <v>244.431705880649</v>
       </c>
       <c r="H30" t="n">
-        <v>53.03155741657225</v>
+        <v>133.7501442067674</v>
       </c>
       <c r="I30" t="n">
-        <v>53.03155741657225</v>
+        <v>53.03155741657226</v>
       </c>
       <c r="J30" t="n">
         <v>78.06035138897343</v>
@@ -6570,22 +6570,22 @@
         <v>1984.855964496462</v>
       </c>
       <c r="T30" t="n">
-        <v>1837.078362854275</v>
+        <v>1867.092429188161</v>
       </c>
       <c r="U30" t="n">
-        <v>1608.873052314905</v>
+        <v>1638.887118648791</v>
       </c>
       <c r="V30" t="n">
-        <v>1373.720944083162</v>
+        <v>1403.735010417048</v>
       </c>
       <c r="W30" t="n">
-        <v>1119.483587354961</v>
+        <v>1149.497653688846</v>
       </c>
       <c r="X30" t="n">
-        <v>911.6320871494279</v>
+        <v>941.6461534833136</v>
       </c>
       <c r="Y30" t="n">
-        <v>703.871788384474</v>
+        <v>892.8720851604146</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>64.39963728307093</v>
+        <v>76.25520419662695</v>
       </c>
       <c r="C31" t="n">
-        <v>54.44968479721895</v>
+        <v>66.305251710775</v>
       </c>
       <c r="D31" t="n">
-        <v>54.44968479721895</v>
+        <v>66.305251710775</v>
       </c>
       <c r="E31" t="n">
-        <v>54.44968479721895</v>
+        <v>66.305251710775</v>
       </c>
       <c r="F31" t="n">
-        <v>66.30525171077504</v>
+        <v>66.305251710775</v>
       </c>
       <c r="G31" t="n">
-        <v>55.83692264630091</v>
+        <v>55.8369226463009</v>
       </c>
       <c r="H31" t="n">
-        <v>53.03155741657225</v>
+        <v>53.03155741657226</v>
       </c>
       <c r="I31" t="n">
-        <v>53.03155741657225</v>
+        <v>61.83429498278009</v>
       </c>
       <c r="J31" t="n">
-        <v>53.03155741657225</v>
+        <v>141.3970756550539</v>
       </c>
       <c r="K31" t="n">
-        <v>57.55040622231439</v>
+        <v>145.915924460796</v>
       </c>
       <c r="L31" t="n">
-        <v>118.8594115114351</v>
+        <v>207.2249297499167</v>
       </c>
       <c r="M31" t="n">
-        <v>193.890284526472</v>
+        <v>282.2558027649537</v>
       </c>
       <c r="N31" t="n">
-        <v>428.3941119615696</v>
+        <v>360.9372257437932</v>
       </c>
       <c r="O31" t="n">
-        <v>640.8752499816328</v>
+        <v>458.7171296219997</v>
       </c>
       <c r="P31" t="n">
-        <v>665.835902415272</v>
+        <v>639.5001865118969</v>
       </c>
       <c r="Q31" t="n">
-        <v>717.3134058258612</v>
+        <v>729.168972739417</v>
       </c>
       <c r="R31" t="n">
-        <v>707.7053483831473</v>
+        <v>719.5609152967031</v>
       </c>
       <c r="S31" t="n">
-        <v>644.4779422579156</v>
+        <v>656.3335091714714</v>
       </c>
       <c r="T31" t="n">
-        <v>574.2129231405279</v>
+        <v>586.0684900540837</v>
       </c>
       <c r="U31" t="n">
-        <v>444.000738187431</v>
+        <v>455.8563051009868</v>
       </c>
       <c r="V31" t="n">
-        <v>348.302480423599</v>
+        <v>360.1580473371549</v>
       </c>
       <c r="W31" t="n">
-        <v>217.8715408286933</v>
+        <v>229.7271077422492</v>
       </c>
       <c r="X31" t="n">
-        <v>148.8682203727309</v>
+        <v>160.7237872862868</v>
       </c>
       <c r="Y31" t="n">
-        <v>87.06187167125572</v>
+        <v>98.91743858481169</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1413.236109846078</v>
+        <v>1413.236109846079</v>
       </c>
       <c r="C32" t="n">
         <v>1203.259823347722</v>
       </c>
       <c r="D32" t="n">
-        <v>1003.980355183026</v>
+        <v>1003.980355183027</v>
       </c>
       <c r="E32" t="n">
-        <v>777.1783330268365</v>
+        <v>777.1783330268372</v>
       </c>
       <c r="F32" t="n">
         <v>525.1786586792846</v>
@@ -6692,58 +6692,58 @@
         <v>265.1872732922884</v>
       </c>
       <c r="H32" t="n">
-        <v>86.59612538377007</v>
+        <v>86.59612538377016</v>
       </c>
       <c r="I32" t="n">
-        <v>53.03155741657225</v>
+        <v>53.03155741657226</v>
       </c>
       <c r="J32" t="n">
-        <v>84.46605876529142</v>
+        <v>240.2884632215494</v>
       </c>
       <c r="K32" t="n">
-        <v>370.1587245072612</v>
+        <v>563.9678408933618</v>
       </c>
       <c r="L32" t="n">
-        <v>786.4991747085363</v>
+        <v>980.3082910946368</v>
       </c>
       <c r="M32" t="n">
-        <v>1248.804646982552</v>
+        <v>1288.277136876592</v>
       </c>
       <c r="N32" t="n">
-        <v>1701.437338166229</v>
+        <v>1740.909828060268</v>
       </c>
       <c r="O32" t="n">
-        <v>2092.341641999716</v>
+        <v>2131.814131893755</v>
       </c>
       <c r="P32" t="n">
-        <v>2411.126625854941</v>
+        <v>2450.599115748981</v>
       </c>
       <c r="Q32" t="n">
-        <v>2612.105380934574</v>
+        <v>2651.577870828613</v>
       </c>
       <c r="R32" t="n">
         <v>2651.577870828613</v>
       </c>
       <c r="S32" t="n">
-        <v>2611.284470000402</v>
+        <v>2611.284470000403</v>
       </c>
       <c r="T32" t="n">
-        <v>2547.198090088535</v>
+        <v>2547.198090088536</v>
       </c>
       <c r="U32" t="n">
-        <v>2452.341430550502</v>
+        <v>2452.341430550503</v>
       </c>
       <c r="V32" t="n">
-        <v>2280.264773648986</v>
+        <v>2280.264773648987</v>
       </c>
       <c r="W32" t="n">
-        <v>2086.482348820927</v>
+        <v>2086.482348820928</v>
       </c>
       <c r="X32" t="n">
-        <v>1872.002821001902</v>
+        <v>1872.002821001903</v>
       </c>
       <c r="Y32" t="n">
-        <v>1640.849719468145</v>
+        <v>1640.849719468146</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>641.3553420458957</v>
+        <v>682.1910093375211</v>
       </c>
       <c r="C33" t="n">
-        <v>466.9023127647687</v>
+        <v>507.7379800563941</v>
       </c>
       <c r="D33" t="n">
-        <v>317.9679031035174</v>
+        <v>358.8035703951428</v>
       </c>
       <c r="E33" t="n">
-        <v>158.7304480980619</v>
+        <v>199.5661153896873</v>
       </c>
       <c r="F33" t="n">
-        <v>158.7304480980619</v>
+        <v>53.03155741657226</v>
       </c>
       <c r="G33" t="n">
-        <v>53.03155741657225</v>
+        <v>53.03155741657226</v>
       </c>
       <c r="H33" t="n">
-        <v>53.03155741657225</v>
+        <v>53.03155741657226</v>
       </c>
       <c r="I33" t="n">
-        <v>53.03155741657225</v>
+        <v>53.03155741657226</v>
       </c>
       <c r="J33" t="n">
         <v>78.06035138897343</v>
@@ -6804,25 +6804,25 @@
         <v>1994.118197793106</v>
       </c>
       <c r="S33" t="n">
-        <v>1984.855964496462</v>
+        <v>1866.705401346032</v>
       </c>
       <c r="T33" t="n">
-        <v>1942.777253535765</v>
+        <v>1824.626690385335</v>
       </c>
       <c r="U33" t="n">
-        <v>1714.571942996395</v>
+        <v>1755.40761028802</v>
       </c>
       <c r="V33" t="n">
-        <v>1479.419834764652</v>
+        <v>1520.255502056277</v>
       </c>
       <c r="W33" t="n">
-        <v>1225.18247803645</v>
+        <v>1266.018145328076</v>
       </c>
       <c r="X33" t="n">
-        <v>1017.330977830918</v>
+        <v>1058.166645122543</v>
       </c>
       <c r="Y33" t="n">
-        <v>809.5706790659638</v>
+        <v>850.4063463575892</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>62.98150990242424</v>
+        <v>62.98150990242431</v>
       </c>
       <c r="C34" t="n">
-        <v>53.03155741657225</v>
+        <v>53.03155741657226</v>
       </c>
       <c r="D34" t="n">
-        <v>61.72464358480004</v>
+        <v>61.7246435848</v>
       </c>
       <c r="E34" t="n">
-        <v>72.57742502095459</v>
+        <v>72.57742502095449</v>
       </c>
       <c r="F34" t="n">
-        <v>84.43299193451068</v>
+        <v>84.43299193451053</v>
       </c>
       <c r="G34" t="n">
-        <v>73.96466287003656</v>
+        <v>73.96466287003635</v>
       </c>
       <c r="H34" t="n">
-        <v>71.1592976403079</v>
+        <v>71.15929764030763</v>
       </c>
       <c r="I34" t="n">
-        <v>79.96203520651569</v>
+        <v>79.96203520651537</v>
       </c>
       <c r="J34" t="n">
-        <v>159.5248158787895</v>
+        <v>159.5248158787891</v>
       </c>
       <c r="K34" t="n">
-        <v>319.8660691407896</v>
+        <v>164.0436646845312</v>
       </c>
       <c r="L34" t="n">
-        <v>381.1750744299103</v>
+        <v>225.3526699736519</v>
       </c>
       <c r="M34" t="n">
-        <v>456.2059474449472</v>
+        <v>310.1032787851532</v>
       </c>
       <c r="N34" t="n">
-        <v>534.8873704237867</v>
+        <v>388.7847017639928</v>
       </c>
       <c r="O34" t="n">
-        <v>591.5461039875919</v>
+        <v>445.4434353277979</v>
       </c>
       <c r="P34" t="n">
-        <v>626.2264922176944</v>
+        <v>626.2264922176951</v>
       </c>
       <c r="Q34" t="n">
-        <v>715.8952784452144</v>
+        <v>715.895278445215</v>
       </c>
       <c r="R34" t="n">
-        <v>706.2872210025006</v>
+        <v>706.2872210025012</v>
       </c>
       <c r="S34" t="n">
-        <v>643.0598148772689</v>
+        <v>643.0598148772694</v>
       </c>
       <c r="T34" t="n">
-        <v>572.7947957598811</v>
+        <v>572.7947957598816</v>
       </c>
       <c r="U34" t="n">
-        <v>442.5826108067843</v>
+        <v>442.5826108067847</v>
       </c>
       <c r="V34" t="n">
-        <v>346.8843530429523</v>
+        <v>346.8843530429526</v>
       </c>
       <c r="W34" t="n">
-        <v>216.4534134480466</v>
+        <v>216.4534134480468</v>
       </c>
       <c r="X34" t="n">
-        <v>147.4500929920842</v>
+        <v>147.4500929920844</v>
       </c>
       <c r="Y34" t="n">
-        <v>85.64374429060902</v>
+        <v>85.64374429060913</v>
       </c>
     </row>
     <row r="35">
@@ -6914,40 +6914,40 @@
         <v>1125.713745489982</v>
       </c>
       <c r="C35" t="n">
-        <v>956.0308598198354</v>
+        <v>956.0308598198358</v>
       </c>
       <c r="D35" t="n">
-        <v>797.0447924833504</v>
+        <v>797.0447924833508</v>
       </c>
       <c r="E35" t="n">
-        <v>610.5361711553717</v>
+        <v>610.536171155372</v>
       </c>
       <c r="F35" t="n">
-        <v>398.8298976360296</v>
+        <v>398.82989763603</v>
       </c>
       <c r="G35" t="n">
         <v>179.1319130772443</v>
       </c>
       <c r="H35" t="n">
-        <v>40.8341659969366</v>
+        <v>40.83416599693662</v>
       </c>
       <c r="I35" t="n">
-        <v>47.42909508401516</v>
+        <v>47.42909508401517</v>
       </c>
       <c r="J35" t="n">
-        <v>78.86359643273434</v>
+        <v>274.1775630407215</v>
       </c>
       <c r="K35" t="n">
-        <v>246.7205696482887</v>
+        <v>442.0345362562758</v>
       </c>
       <c r="L35" t="n">
-        <v>507.2386153933058</v>
+        <v>702.552582001293</v>
       </c>
       <c r="M35" t="n">
-        <v>813.7216832110637</v>
+        <v>1009.035649819051</v>
       </c>
       <c r="N35" t="n">
-        <v>1110.531969938482</v>
+        <v>1305.845936546469</v>
       </c>
       <c r="O35" t="n">
         <v>1540.927835923698</v>
@@ -6956,31 +6956,31 @@
         <v>1899.204381930653</v>
       </c>
       <c r="Q35" t="n">
-        <v>1962.744247801062</v>
+        <v>1962.744247801063</v>
       </c>
       <c r="R35" t="n">
-        <v>2041.70829984683</v>
+        <v>2041.708299846831</v>
       </c>
       <c r="S35" t="n">
-        <v>2041.70829984683</v>
+        <v>2041.708299846831</v>
       </c>
       <c r="T35" t="n">
         <v>2017.915320763174</v>
       </c>
       <c r="U35" t="n">
-        <v>1963.352062053352</v>
+        <v>1963.352062053353</v>
       </c>
       <c r="V35" t="n">
-        <v>1831.568805980047</v>
+        <v>1831.568805980048</v>
       </c>
       <c r="W35" t="n">
         <v>1678.079781980199</v>
       </c>
       <c r="X35" t="n">
-        <v>1503.893654989384</v>
+        <v>1503.893654989385</v>
       </c>
       <c r="Y35" t="n">
-        <v>1313.033954283838</v>
+        <v>1313.033954283839</v>
       </c>
     </row>
     <row r="36">
@@ -6990,31 +6990,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>669.9936179178854</v>
+        <v>861.3937663819621</v>
       </c>
       <c r="C36" t="n">
-        <v>495.5405886367584</v>
+        <v>686.9407371008351</v>
       </c>
       <c r="D36" t="n">
-        <v>346.6061789755071</v>
+        <v>538.0063274395839</v>
       </c>
       <c r="E36" t="n">
-        <v>187.3687239700516</v>
+        <v>378.7688724341284</v>
       </c>
       <c r="F36" t="n">
-        <v>40.8341659969366</v>
+        <v>232.2343144610134</v>
       </c>
       <c r="G36" t="n">
-        <v>40.8341659969366</v>
+        <v>232.2343144610134</v>
       </c>
       <c r="H36" t="n">
-        <v>40.8341659969366</v>
+        <v>121.5527527871318</v>
       </c>
       <c r="I36" t="n">
-        <v>40.8341659969366</v>
+        <v>40.83416599693662</v>
       </c>
       <c r="J36" t="n">
-        <v>65.86295996933778</v>
+        <v>65.86295996933779</v>
       </c>
       <c r="K36" t="n">
         <v>235.2619985106319</v>
@@ -7044,22 +7044,22 @@
         <v>1981.92080637347</v>
       </c>
       <c r="T36" t="n">
-        <v>1971.415529407755</v>
+        <v>1980.135496240983</v>
       </c>
       <c r="U36" t="n">
-        <v>1743.210218868384</v>
+        <v>1751.930185701613</v>
       </c>
       <c r="V36" t="n">
-        <v>1508.058110636642</v>
+        <v>1516.778077469871</v>
       </c>
       <c r="W36" t="n">
-        <v>1253.82075390844</v>
+        <v>1262.540720741669</v>
       </c>
       <c r="X36" t="n">
-        <v>1045.969253702907</v>
+        <v>1054.689220536136</v>
       </c>
       <c r="Y36" t="n">
-        <v>838.2089549379534</v>
+        <v>1029.60910340203</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>40.8341659969366</v>
+        <v>58.11447222480587</v>
       </c>
       <c r="C37" t="n">
-        <v>40.8341659969366</v>
+        <v>78.26430082517076</v>
       </c>
       <c r="D37" t="n">
-        <v>40.8341659969366</v>
+        <v>78.26430082517076</v>
       </c>
       <c r="E37" t="n">
-        <v>40.8341659969366</v>
+        <v>78.26430082517076</v>
       </c>
       <c r="F37" t="n">
-        <v>40.8341659969366</v>
+        <v>78.26430082517076</v>
       </c>
       <c r="G37" t="n">
-        <v>40.8341659969366</v>
+        <v>78.26430082517076</v>
       </c>
       <c r="H37" t="n">
-        <v>40.8341659969366</v>
+        <v>78.26430082517076</v>
       </c>
       <c r="I37" t="n">
         <v>78.26430082517076</v>
@@ -7132,13 +7132,13 @@
         <v>181.1945722646483</v>
       </c>
       <c r="W37" t="n">
-        <v>91.05703349795311</v>
+        <v>91.05703349795313</v>
       </c>
       <c r="X37" t="n">
-        <v>62.34711387020124</v>
+        <v>62.34711387020126</v>
       </c>
       <c r="Y37" t="n">
-        <v>40.8341659969366</v>
+        <v>40.83416599693662</v>
       </c>
     </row>
     <row r="38">
@@ -7151,46 +7151,46 @@
         <v>1125.713745489982</v>
       </c>
       <c r="C38" t="n">
-        <v>956.0308598198354</v>
+        <v>956.030859819836</v>
       </c>
       <c r="D38" t="n">
-        <v>797.0447924833506</v>
+        <v>797.044792483351</v>
       </c>
       <c r="E38" t="n">
-        <v>610.5361711553721</v>
+        <v>610.5361711553724</v>
       </c>
       <c r="F38" t="n">
-        <v>398.8298976360303</v>
+        <v>398.8298976360304</v>
       </c>
       <c r="G38" t="n">
-        <v>179.1319130772443</v>
+        <v>179.1319130772442</v>
       </c>
       <c r="H38" t="n">
-        <v>40.83416599693663</v>
+        <v>40.83416599693662</v>
       </c>
       <c r="I38" t="n">
-        <v>47.42909508401518</v>
+        <v>47.42909508401526</v>
       </c>
       <c r="J38" t="n">
-        <v>274.1775630407215</v>
+        <v>274.1775630407217</v>
       </c>
       <c r="K38" t="n">
-        <v>637.3485028642631</v>
+        <v>460.4180515033111</v>
       </c>
       <c r="L38" t="n">
-        <v>897.8665486092802</v>
+        <v>720.9360972483282</v>
       </c>
       <c r="M38" t="n">
-        <v>1204.349616427038</v>
+        <v>1027.419165066086</v>
       </c>
       <c r="N38" t="n">
-        <v>1519.543418401492</v>
+        <v>1324.229451793504</v>
       </c>
       <c r="O38" t="n">
-        <v>1754.625317778721</v>
+        <v>1559.311351170733</v>
       </c>
       <c r="P38" t="n">
-        <v>1917.587897177689</v>
+        <v>1722.273930569701</v>
       </c>
       <c r="Q38" t="n">
         <v>1962.744247801063</v>
@@ -7205,10 +7205,10 @@
         <v>2017.915320763175</v>
       </c>
       <c r="U38" t="n">
-        <v>1963.352062053353</v>
+        <v>1963.352062053352</v>
       </c>
       <c r="V38" t="n">
-        <v>1831.568805980048</v>
+        <v>1831.568805980047</v>
       </c>
       <c r="W38" t="n">
         <v>1678.079781980199</v>
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>709.7447522826812</v>
+        <v>495.5405886367584</v>
       </c>
       <c r="C39" t="n">
-        <v>535.2917230015543</v>
+        <v>495.5405886367584</v>
       </c>
       <c r="D39" t="n">
-        <v>386.357313340303</v>
+        <v>346.6061789755071</v>
       </c>
       <c r="E39" t="n">
-        <v>227.1198583348475</v>
+        <v>187.3687239700516</v>
       </c>
       <c r="F39" t="n">
-        <v>80.58530036173246</v>
+        <v>40.83416599693662</v>
       </c>
       <c r="G39" t="n">
-        <v>80.58530036173246</v>
+        <v>40.83416599693662</v>
       </c>
       <c r="H39" t="n">
-        <v>80.58530036173246</v>
+        <v>40.83416599693662</v>
       </c>
       <c r="I39" t="n">
-        <v>40.83416599693663</v>
+        <v>40.83416599693662</v>
       </c>
       <c r="J39" t="n">
         <v>65.86295996933779</v>
@@ -7281,22 +7281,22 @@
         <v>1813.672342634771</v>
       </c>
       <c r="T39" t="n">
-        <v>1811.887032502285</v>
+        <v>1612.60740123202</v>
       </c>
       <c r="U39" t="n">
-        <v>1782.96135323318</v>
+        <v>1384.402090692649</v>
       </c>
       <c r="V39" t="n">
-        <v>1547.809245001438</v>
+        <v>1149.249982460907</v>
       </c>
       <c r="W39" t="n">
-        <v>1293.571888273236</v>
+        <v>895.0126257327051</v>
       </c>
       <c r="X39" t="n">
-        <v>1085.720388067703</v>
+        <v>687.1611255271723</v>
       </c>
       <c r="Y39" t="n">
-        <v>877.9600893027493</v>
+        <v>495.5405886367584</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>40.83416599693663</v>
+        <v>40.83416599693662</v>
       </c>
       <c r="C40" t="n">
-        <v>40.83416599693663</v>
+        <v>40.83416599693662</v>
       </c>
       <c r="D40" t="n">
-        <v>40.83416599693663</v>
+        <v>40.83416599693662</v>
       </c>
       <c r="E40" t="n">
-        <v>40.83416599693663</v>
+        <v>40.83416599693662</v>
       </c>
       <c r="F40" t="n">
-        <v>40.83416599693663</v>
+        <v>40.83416599693662</v>
       </c>
       <c r="G40" t="n">
-        <v>40.83416599693663</v>
+        <v>40.83416599693662</v>
       </c>
       <c r="H40" t="n">
-        <v>40.83416599693663</v>
+        <v>40.83416599693662</v>
       </c>
       <c r="I40" t="n">
-        <v>78.26430082517076</v>
+        <v>48.18959577304476</v>
       </c>
       <c r="J40" t="n">
-        <v>78.26430082517076</v>
+        <v>48.18959577304476</v>
       </c>
       <c r="K40" t="n">
-        <v>82.7831496309129</v>
+        <v>52.7084445787869</v>
       </c>
       <c r="L40" t="n">
-        <v>144.0921549200336</v>
+        <v>114.0174498679076</v>
       </c>
       <c r="M40" t="n">
-        <v>219.1230279350705</v>
+        <v>189.0483228829445</v>
       </c>
       <c r="N40" t="n">
-        <v>297.80445091391</v>
+        <v>267.7297458617841</v>
       </c>
       <c r="O40" t="n">
-        <v>354.4631844777152</v>
+        <v>324.3884794255893</v>
       </c>
       <c r="P40" t="n">
-        <v>379.4238369113544</v>
+        <v>349.3491318592284</v>
       </c>
       <c r="Q40" t="n">
-        <v>379.4238369113544</v>
+        <v>349.3491318592284</v>
       </c>
       <c r="R40" t="n">
-        <v>379.4238369113544</v>
+        <v>379.4238369113538</v>
       </c>
       <c r="S40" t="n">
-        <v>356.4898316143332</v>
+        <v>356.4898316143327</v>
       </c>
       <c r="T40" t="n">
-        <v>326.518213325156</v>
+        <v>326.5182133251556</v>
       </c>
       <c r="U40" t="n">
-        <v>236.5994292002697</v>
+        <v>236.5994292002694</v>
       </c>
       <c r="V40" t="n">
-        <v>181.1945722646483</v>
+        <v>181.194572264648</v>
       </c>
       <c r="W40" t="n">
-        <v>91.05703349795313</v>
+        <v>91.05703349795296</v>
       </c>
       <c r="X40" t="n">
-        <v>62.34711387020126</v>
+        <v>62.34711387020117</v>
       </c>
       <c r="Y40" t="n">
-        <v>40.83416599693663</v>
+        <v>40.83416599693662</v>
       </c>
     </row>
     <row r="41">
@@ -7388,49 +7388,49 @@
         <v>1125.713745489982</v>
       </c>
       <c r="C41" t="n">
-        <v>956.030859819836</v>
+        <v>956.0308598198359</v>
       </c>
       <c r="D41" t="n">
-        <v>797.044792483351</v>
+        <v>797.0447924833509</v>
       </c>
       <c r="E41" t="n">
-        <v>610.5361711553722</v>
+        <v>610.5361711553721</v>
       </c>
       <c r="F41" t="n">
-        <v>398.8298976360302</v>
+        <v>398.82989763603</v>
       </c>
       <c r="G41" t="n">
         <v>179.1319130772443</v>
       </c>
       <c r="H41" t="n">
-        <v>40.83416599693663</v>
+        <v>40.83416599693661</v>
       </c>
       <c r="I41" t="n">
-        <v>47.42909508401518</v>
+        <v>47.4290950840152</v>
       </c>
       <c r="J41" t="n">
-        <v>274.1775630407215</v>
+        <v>78.86359643273437</v>
       </c>
       <c r="K41" t="n">
-        <v>637.3485028642631</v>
+        <v>246.7205696482887</v>
       </c>
       <c r="L41" t="n">
-        <v>916.250063856316</v>
+        <v>507.2386153933058</v>
       </c>
       <c r="M41" t="n">
-        <v>1222.733131674074</v>
+        <v>813.7216832110637</v>
       </c>
       <c r="N41" t="n">
-        <v>1519.543418401492</v>
+        <v>1110.531969938482</v>
       </c>
       <c r="O41" t="n">
-        <v>1754.625317778721</v>
+        <v>1540.927835923698</v>
       </c>
       <c r="P41" t="n">
-        <v>1917.587897177689</v>
+        <v>1899.204381930653</v>
       </c>
       <c r="Q41" t="n">
-        <v>1962.744247801063</v>
+        <v>1962.744247801062</v>
       </c>
       <c r="R41" t="n">
         <v>2041.708299846831</v>
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>521.0592082566342</v>
+        <v>669.9936179178854</v>
       </c>
       <c r="C42" t="n">
-        <v>346.6061789755072</v>
+        <v>495.5405886367584</v>
       </c>
       <c r="D42" t="n">
-        <v>346.6061789755072</v>
+        <v>346.6061789755071</v>
       </c>
       <c r="E42" t="n">
-        <v>187.3687239700517</v>
+        <v>187.3687239700516</v>
       </c>
       <c r="F42" t="n">
-        <v>40.83416599693663</v>
+        <v>40.83416599693661</v>
       </c>
       <c r="G42" t="n">
-        <v>40.83416599693663</v>
+        <v>40.83416599693661</v>
       </c>
       <c r="H42" t="n">
-        <v>40.83416599693663</v>
+        <v>40.83416599693661</v>
       </c>
       <c r="I42" t="n">
-        <v>40.83416599693663</v>
+        <v>40.83416599693661</v>
       </c>
       <c r="J42" t="n">
         <v>65.86295996933779</v>
@@ -7518,22 +7518,22 @@
         <v>1981.92080637347</v>
       </c>
       <c r="T42" t="n">
-        <v>1822.481119746503</v>
+        <v>1780.855864970718</v>
       </c>
       <c r="U42" t="n">
-        <v>1594.275809207133</v>
+        <v>1743.210218868384</v>
       </c>
       <c r="V42" t="n">
-        <v>1359.12370097539</v>
+        <v>1508.058110636642</v>
       </c>
       <c r="W42" t="n">
-        <v>1104.886344247189</v>
+        <v>1253.82075390844</v>
       </c>
       <c r="X42" t="n">
-        <v>897.034844041656</v>
+        <v>1045.969253702907</v>
       </c>
       <c r="Y42" t="n">
-        <v>689.2745452767022</v>
+        <v>838.2089549379534</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>40.83416599693663</v>
+        <v>40.83416599693661</v>
       </c>
       <c r="C43" t="n">
-        <v>40.83416599693663</v>
+        <v>40.83416599693661</v>
       </c>
       <c r="D43" t="n">
-        <v>40.83416599693663</v>
+        <v>40.83416599693661</v>
       </c>
       <c r="E43" t="n">
-        <v>40.83416599693663</v>
+        <v>78.26430082517054</v>
       </c>
       <c r="F43" t="n">
-        <v>40.83416599693663</v>
+        <v>78.26430082517054</v>
       </c>
       <c r="G43" t="n">
-        <v>40.83416599693663</v>
+        <v>78.26430082517054</v>
       </c>
       <c r="H43" t="n">
-        <v>40.83416599693663</v>
+        <v>78.26430082517054</v>
       </c>
       <c r="I43" t="n">
-        <v>40.83416599693663</v>
+        <v>78.26430082517054</v>
       </c>
       <c r="J43" t="n">
-        <v>78.26430082517076</v>
+        <v>78.26430082517054</v>
       </c>
       <c r="K43" t="n">
-        <v>82.7831496309129</v>
+        <v>82.78314963091267</v>
       </c>
       <c r="L43" t="n">
-        <v>144.0921549200336</v>
+        <v>144.0921549200334</v>
       </c>
       <c r="M43" t="n">
-        <v>219.1230279350705</v>
+        <v>219.1230279350703</v>
       </c>
       <c r="N43" t="n">
-        <v>297.80445091391</v>
+        <v>297.8044509139098</v>
       </c>
       <c r="O43" t="n">
-        <v>354.4631844777152</v>
+        <v>354.463184477715</v>
       </c>
       <c r="P43" t="n">
-        <v>379.4238369113544</v>
+        <v>379.4238369113542</v>
       </c>
       <c r="Q43" t="n">
-        <v>379.4238369113544</v>
+        <v>379.4238369113542</v>
       </c>
       <c r="R43" t="n">
-        <v>379.4238369113544</v>
+        <v>379.4238369113542</v>
       </c>
       <c r="S43" t="n">
-        <v>356.4898316143332</v>
+        <v>356.4898316143331</v>
       </c>
       <c r="T43" t="n">
-        <v>326.518213325156</v>
+        <v>326.5182133251558</v>
       </c>
       <c r="U43" t="n">
-        <v>236.5994292002697</v>
+        <v>236.5994292002696</v>
       </c>
       <c r="V43" t="n">
-        <v>181.1945722646483</v>
+        <v>181.1945722646482</v>
       </c>
       <c r="W43" t="n">
-        <v>91.05703349795313</v>
+        <v>91.05703349795306</v>
       </c>
       <c r="X43" t="n">
-        <v>62.34711387020126</v>
+        <v>62.34711387020122</v>
       </c>
       <c r="Y43" t="n">
-        <v>40.83416599693663</v>
+        <v>40.83416599693661</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>1125.713745489982</v>
       </c>
       <c r="C44" t="n">
-        <v>956.0308598198353</v>
+        <v>956.0308598198354</v>
       </c>
       <c r="D44" t="n">
         <v>797.0447924833504</v>
@@ -7637,34 +7637,34 @@
         <v>398.8298976360295</v>
       </c>
       <c r="G44" t="n">
-        <v>179.1319130772444</v>
+        <v>179.1319130772443</v>
       </c>
       <c r="H44" t="n">
-        <v>40.83416599693663</v>
+        <v>40.83416599693661</v>
       </c>
       <c r="I44" t="n">
-        <v>47.42909508401512</v>
+        <v>47.42909508401509</v>
       </c>
       <c r="J44" t="n">
-        <v>97.24711167977009</v>
+        <v>274.1775630407213</v>
       </c>
       <c r="K44" t="n">
-        <v>265.1040848953244</v>
+        <v>442.0345362562755</v>
       </c>
       <c r="L44" t="n">
-        <v>720.9360972483287</v>
+        <v>720.936097248329</v>
       </c>
       <c r="M44" t="n">
-        <v>1027.419165066086</v>
+        <v>1222.733131674074</v>
       </c>
       <c r="N44" t="n">
-        <v>1324.229451793505</v>
+        <v>1519.543418401492</v>
       </c>
       <c r="O44" t="n">
-        <v>1559.311351170734</v>
+        <v>1754.625317778721</v>
       </c>
       <c r="P44" t="n">
-        <v>1722.273930569702</v>
+        <v>1917.587897177688</v>
       </c>
       <c r="Q44" t="n">
         <v>1962.744247801063</v>
@@ -7679,7 +7679,7 @@
         <v>2017.915320763175</v>
       </c>
       <c r="U44" t="n">
-        <v>1963.352062053353</v>
+        <v>1963.352062053352</v>
       </c>
       <c r="V44" t="n">
         <v>1831.568805980047</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>669.9936179178854</v>
+        <v>780.675179591767</v>
       </c>
       <c r="C45" t="n">
-        <v>495.5405886367585</v>
+        <v>606.22215031064</v>
       </c>
       <c r="D45" t="n">
-        <v>346.6061789755072</v>
+        <v>457.2877406493888</v>
       </c>
       <c r="E45" t="n">
-        <v>187.3687239700517</v>
+        <v>298.0502856439333</v>
       </c>
       <c r="F45" t="n">
-        <v>40.83416599693663</v>
+        <v>151.5157276708182</v>
       </c>
       <c r="G45" t="n">
-        <v>40.83416599693663</v>
+        <v>151.5157276708182</v>
       </c>
       <c r="H45" t="n">
-        <v>40.83416599693663</v>
+        <v>40.83416599693661</v>
       </c>
       <c r="I45" t="n">
-        <v>40.83416599693663</v>
+        <v>40.83416599693661</v>
       </c>
       <c r="J45" t="n">
-        <v>65.86295996933779</v>
+        <v>65.86295996933772</v>
       </c>
       <c r="K45" t="n">
-        <v>235.2619985106319</v>
+        <v>235.2619985106318</v>
       </c>
       <c r="L45" t="n">
-        <v>524.4443072560086</v>
+        <v>524.4443072560084</v>
       </c>
       <c r="M45" t="n">
-        <v>913.8856433538526</v>
+        <v>913.8856433538523</v>
       </c>
       <c r="N45" t="n">
-        <v>1329.341346186802</v>
+        <v>1329.341346186801</v>
       </c>
       <c r="O45" t="n">
-        <v>1642.98647016815</v>
+        <v>1642.986470168149</v>
       </c>
       <c r="P45" t="n">
-        <v>1877.711265928356</v>
+        <v>1877.711265928355</v>
       </c>
       <c r="Q45" t="n">
-        <v>1981.92080637347</v>
+        <v>1981.920806373469</v>
       </c>
       <c r="R45" t="n">
-        <v>1981.92080637347</v>
+        <v>1981.920806373469</v>
       </c>
       <c r="S45" t="n">
-        <v>1981.92080637347</v>
+        <v>1981.920806373469</v>
       </c>
       <c r="T45" t="n">
-        <v>1971.415529407755</v>
+        <v>1980.135496240982</v>
       </c>
       <c r="U45" t="n">
-        <v>1743.210218868384</v>
+        <v>1751.930185701612</v>
       </c>
       <c r="V45" t="n">
-        <v>1508.058110636642</v>
+        <v>1618.739672310523</v>
       </c>
       <c r="W45" t="n">
-        <v>1253.82075390844</v>
+        <v>1364.502315582322</v>
       </c>
       <c r="X45" t="n">
-        <v>1045.969253702907</v>
+        <v>1156.650815376789</v>
       </c>
       <c r="Y45" t="n">
-        <v>838.2089549379534</v>
+        <v>948.890516611835</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>40.83416599693663</v>
+        <v>40.83416599693661</v>
       </c>
       <c r="C46" t="n">
-        <v>40.83416599693663</v>
+        <v>40.83416599693661</v>
       </c>
       <c r="D46" t="n">
-        <v>40.83416599693663</v>
+        <v>40.83416599693661</v>
       </c>
       <c r="E46" t="n">
-        <v>40.83416599693663</v>
+        <v>40.83416599693661</v>
       </c>
       <c r="F46" t="n">
-        <v>40.83416599693663</v>
+        <v>40.83416599693661</v>
       </c>
       <c r="G46" t="n">
-        <v>40.83416599693663</v>
+        <v>40.83416599693661</v>
       </c>
       <c r="H46" t="n">
-        <v>40.83416599693663</v>
+        <v>40.83416599693661</v>
       </c>
       <c r="I46" t="n">
-        <v>40.83416599693663</v>
+        <v>40.83416599693661</v>
       </c>
       <c r="J46" t="n">
-        <v>40.83416599693663</v>
+        <v>40.83416599693661</v>
       </c>
       <c r="K46" t="n">
-        <v>45.35301480267877</v>
+        <v>45.35301480267869</v>
       </c>
       <c r="L46" t="n">
-        <v>106.6620200917995</v>
+        <v>106.6620200917993</v>
       </c>
       <c r="M46" t="n">
-        <v>181.6928931068364</v>
+        <v>181.6928931068362</v>
       </c>
       <c r="N46" t="n">
-        <v>260.374316085676</v>
+        <v>260.3743160856756</v>
       </c>
       <c r="O46" t="n">
-        <v>317.0330496494811</v>
+        <v>317.0330496494806</v>
       </c>
       <c r="P46" t="n">
-        <v>341.9937020831203</v>
+        <v>341.9937020831197</v>
       </c>
       <c r="Q46" t="n">
-        <v>379.4238369113548</v>
+        <v>349.3491318592294</v>
       </c>
       <c r="R46" t="n">
-        <v>379.4238369113548</v>
+        <v>379.4238369113546</v>
       </c>
       <c r="S46" t="n">
-        <v>356.4898316143336</v>
+        <v>356.4898316143334</v>
       </c>
       <c r="T46" t="n">
-        <v>326.5182133251563</v>
+        <v>326.5182133251561</v>
       </c>
       <c r="U46" t="n">
-        <v>236.5994292002699</v>
+        <v>236.5994292002698</v>
       </c>
       <c r="V46" t="n">
-        <v>181.1945722646485</v>
+        <v>181.1945722646483</v>
       </c>
       <c r="W46" t="n">
-        <v>91.05703349795324</v>
+        <v>91.05703349795317</v>
       </c>
       <c r="X46" t="n">
-        <v>62.34711387020132</v>
+        <v>62.34711387020128</v>
       </c>
       <c r="Y46" t="n">
-        <v>40.83416599693663</v>
+        <v>40.83416599693661</v>
       </c>
     </row>
   </sheetData>
@@ -8693,22 +8693,22 @@
         <v>154.5929143736351</v>
       </c>
       <c r="L11" t="n">
-        <v>269.0667458781643</v>
+        <v>306.979066139313</v>
       </c>
       <c r="M11" t="n">
-        <v>292.4020698567044</v>
+        <v>208.8772742184103</v>
       </c>
       <c r="N11" t="n">
-        <v>290.0059467256937</v>
+        <v>290.0059467256938</v>
       </c>
       <c r="O11" t="n">
-        <v>295.8111099907878</v>
+        <v>295.8111099907879</v>
       </c>
       <c r="P11" t="n">
         <v>157.1900421119193</v>
       </c>
       <c r="Q11" t="n">
-        <v>166.702515282759</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,25 +8766,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>100.8094252672763</v>
       </c>
       <c r="K12" t="n">
         <v>93.35509707187745</v>
       </c>
       <c r="L12" t="n">
-        <v>231.2043958818574</v>
+        <v>78.73700313641197</v>
       </c>
       <c r="M12" t="n">
-        <v>88.093298692236</v>
+        <v>113.3749087653685</v>
       </c>
       <c r="N12" t="n">
-        <v>212.1575420052121</v>
+        <v>212.1575420052122</v>
       </c>
       <c r="O12" t="n">
-        <v>77.04906272991268</v>
+        <v>229.5164554753582</v>
       </c>
       <c r="P12" t="n">
-        <v>233.834408092246</v>
+        <v>233.8344080922461</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8927,25 +8927,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>154.5929143736351</v>
+        <v>307.0603071190806</v>
       </c>
       <c r="L14" t="n">
-        <v>306.9790661393129</v>
+        <v>154.5116733938675</v>
       </c>
       <c r="M14" t="n">
-        <v>292.4020698567044</v>
+        <v>139.934677111259</v>
       </c>
       <c r="N14" t="n">
-        <v>290.0059467256937</v>
+        <v>290.0059467256938</v>
       </c>
       <c r="O14" t="n">
-        <v>257.8987897296393</v>
+        <v>212.2863143524937</v>
       </c>
       <c r="P14" t="n">
-        <v>157.1900421119193</v>
+        <v>309.6574348573648</v>
       </c>
       <c r="Q14" t="n">
-        <v>166.702515282759</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,22 +9003,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>100.8094252672763</v>
       </c>
       <c r="K15" t="n">
         <v>93.35509707187745</v>
       </c>
       <c r="L15" t="n">
-        <v>231.2043958818574</v>
+        <v>231.2043958818575</v>
       </c>
       <c r="M15" t="n">
-        <v>224.7973695279261</v>
+        <v>224.7973695279262</v>
       </c>
       <c r="N15" t="n">
-        <v>212.1575420052121</v>
+        <v>205.9972433084265</v>
       </c>
       <c r="O15" t="n">
-        <v>198.0745467054399</v>
+        <v>229.5164554753582</v>
       </c>
       <c r="P15" t="n">
         <v>81.36701534680054</v>
@@ -9161,28 +9161,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>137.344593607711</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>154.5929143736351</v>
       </c>
       <c r="L17" t="n">
-        <v>306.9790661393129</v>
+        <v>154.5116733938675</v>
       </c>
       <c r="M17" t="n">
-        <v>139.934677111259</v>
+        <v>208.8772742184103</v>
       </c>
       <c r="N17" t="n">
-        <v>290.0059467256937</v>
+        <v>290.0059467256938</v>
       </c>
       <c r="O17" t="n">
-        <v>295.8111099907878</v>
+        <v>295.8111099907879</v>
       </c>
       <c r="P17" t="n">
-        <v>303.497136160579</v>
+        <v>309.6574348573648</v>
       </c>
       <c r="Q17" t="n">
-        <v>166.702515282759</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9243,22 +9243,22 @@
         <v>100.8094252672763</v>
       </c>
       <c r="K18" t="n">
-        <v>93.35509707187745</v>
+        <v>245.822489817323</v>
       </c>
       <c r="L18" t="n">
-        <v>231.2043958818574</v>
+        <v>78.73700313641197</v>
       </c>
       <c r="M18" t="n">
-        <v>224.7973695279261</v>
+        <v>224.7973695279262</v>
       </c>
       <c r="N18" t="n">
-        <v>212.1575420052121</v>
+        <v>205.9972433084265</v>
       </c>
       <c r="O18" t="n">
-        <v>223.3561567785724</v>
+        <v>77.04906272991268</v>
       </c>
       <c r="P18" t="n">
-        <v>81.36701534680054</v>
+        <v>233.8344080922461</v>
       </c>
       <c r="Q18" t="n">
         <v>104.8151256700772</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>137.344593607711</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>154.5929143736351</v>
@@ -9407,19 +9407,19 @@
         <v>154.5116733938675</v>
       </c>
       <c r="M20" t="n">
-        <v>292.4020698567044</v>
+        <v>208.8772742184103</v>
       </c>
       <c r="N20" t="n">
-        <v>283.8456480289079</v>
+        <v>290.0059467256938</v>
       </c>
       <c r="O20" t="n">
-        <v>295.8111099907878</v>
+        <v>295.8111099907879</v>
       </c>
       <c r="P20" t="n">
         <v>309.6574348573648</v>
       </c>
       <c r="Q20" t="n">
-        <v>166.702515282759</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>100.8094252672763</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>93.35509707187745</v>
+        <v>245.822489817323</v>
       </c>
       <c r="L21" t="n">
-        <v>231.2043958818574</v>
+        <v>78.73700313641197</v>
       </c>
       <c r="M21" t="n">
-        <v>224.7973695279261</v>
+        <v>224.7973695279262</v>
       </c>
       <c r="N21" t="n">
-        <v>212.1575420052121</v>
+        <v>75.45347116952205</v>
       </c>
       <c r="O21" t="n">
-        <v>223.3561567785724</v>
+        <v>77.04906272991268</v>
       </c>
       <c r="P21" t="n">
-        <v>81.36701534680054</v>
+        <v>233.8344080922461</v>
       </c>
       <c r="Q21" t="n">
-        <v>104.8151256700772</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9638,22 +9638,22 @@
         <v>137.344593607711</v>
       </c>
       <c r="K23" t="n">
-        <v>154.5929143736351</v>
+        <v>307.060307119081</v>
       </c>
       <c r="L23" t="n">
         <v>154.5116733938675</v>
       </c>
       <c r="M23" t="n">
-        <v>240.6292957827729</v>
+        <v>139.934677111259</v>
       </c>
       <c r="N23" t="n">
-        <v>290.0059467256937</v>
+        <v>290.0059467256941</v>
       </c>
       <c r="O23" t="n">
-        <v>295.8111099907878</v>
+        <v>244.038335916857</v>
       </c>
       <c r="P23" t="n">
-        <v>309.6574348573648</v>
+        <v>309.6574348573652</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9717,19 +9717,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>245.8224898173229</v>
+        <v>245.8224898173233</v>
       </c>
       <c r="L24" t="n">
-        <v>231.2043958818574</v>
+        <v>231.2043958818579</v>
       </c>
       <c r="M24" t="n">
-        <v>224.7973695279261</v>
+        <v>72.32997678248067</v>
       </c>
       <c r="N24" t="n">
-        <v>180.7156332352939</v>
+        <v>180.7156332352944</v>
       </c>
       <c r="O24" t="n">
-        <v>77.04906272991268</v>
+        <v>229.5164554753586</v>
       </c>
       <c r="P24" t="n">
         <v>81.36701534680054</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>192.1085512383205</v>
+        <v>192.1085512383203</v>
       </c>
       <c r="C11" t="n">
-        <v>174.6476013458474</v>
+        <v>22.18020860040178</v>
       </c>
       <c r="D11" t="n">
-        <v>164.0577511955229</v>
+        <v>164.0577511955227</v>
       </c>
       <c r="E11" t="n">
-        <v>191.3050796471017</v>
+        <v>63.67334464931563</v>
       </c>
       <c r="F11" t="n">
-        <v>103.282991008047</v>
+        <v>63.78336257110567</v>
       </c>
       <c r="G11" t="n">
-        <v>71.69515650015506</v>
+        <v>71.69515650015484</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>143.5763141419071</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.661544532402635</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>30.21659382522199</v>
       </c>
       <c r="U11" t="n">
-        <v>60.67917065512643</v>
+        <v>60.67917065512628</v>
       </c>
       <c r="V11" t="n">
-        <v>137.1269680449748</v>
+        <v>137.1269680449747</v>
       </c>
       <c r="W11" t="n">
-        <v>158.6156782922529</v>
+        <v>158.6156782922528</v>
       </c>
       <c r="X11" t="n">
-        <v>179.1058102533089</v>
+        <v>179.1058102533088</v>
       </c>
       <c r="Y11" t="n">
-        <v>43.14525548544805</v>
+        <v>195.6126482308933</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>192.1085512383204</v>
+        <v>192.1085512383205</v>
       </c>
       <c r="C14" t="n">
-        <v>174.6476013458474</v>
+        <v>22.18020860040195</v>
       </c>
       <c r="D14" t="n">
-        <v>164.0577511955228</v>
+        <v>164.0577511955229</v>
       </c>
       <c r="E14" t="n">
-        <v>191.3050796471016</v>
+        <v>38.83768690165618</v>
       </c>
       <c r="F14" t="n">
-        <v>216.2507553165512</v>
+        <v>88.61902031876571</v>
       </c>
       <c r="G14" t="n">
-        <v>71.69515650015498</v>
+        <v>71.69515650015501</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>143.5763141419073</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>6.66154453240255</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>30.21659382522216</v>
       </c>
       <c r="U14" t="n">
-        <v>60.67917065512635</v>
+        <v>60.67917065512646</v>
       </c>
       <c r="V14" t="n">
-        <v>24.15920373647026</v>
+        <v>137.1269680449748</v>
       </c>
       <c r="W14" t="n">
-        <v>158.6156782922528</v>
+        <v>158.6156782922529</v>
       </c>
       <c r="X14" t="n">
-        <v>179.1058102533088</v>
+        <v>179.105810253309</v>
       </c>
       <c r="Y14" t="n">
-        <v>43.14525548544796</v>
+        <v>195.6126482308935</v>
       </c>
     </row>
     <row r="15">
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-2.415845301584341e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -26314,7 +26314,7 @@
         <v>122891.4508075557</v>
       </c>
       <c r="C2" t="n">
-        <v>122891.4508075557</v>
+        <v>122891.4508075558</v>
       </c>
       <c r="D2" t="n">
         <v>122891.4508075558</v>
@@ -26332,10 +26332,10 @@
         <v>123156.2654796425</v>
       </c>
       <c r="I2" t="n">
+        <v>123156.2654796424</v>
+      </c>
+      <c r="J2" t="n">
         <v>123156.2654796426</v>
-      </c>
-      <c r="J2" t="n">
-        <v>123156.2654796425</v>
       </c>
       <c r="K2" t="n">
         <v>123156.2654796425</v>
@@ -26347,10 +26347,10 @@
         <v>123156.2654796426</v>
       </c>
       <c r="N2" t="n">
-        <v>123156.2654796426</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="O2" t="n">
-        <v>123156.2654796426</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="P2" t="n">
         <v>123156.2654796426</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>300924.1716561877</v>
+        <v>300924.1716561879</v>
       </c>
       <c r="F3" t="n">
-        <v>9.094947017729282e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>100718.1272135095</v>
+        <v>100718.1272135096</v>
       </c>
       <c r="H3" t="n">
         <v>4.547473508864641e-11</v>
@@ -26396,13 +26396,13 @@
         <v>100718.1272135095</v>
       </c>
       <c r="M3" t="n">
-        <v>31912.37345594279</v>
+        <v>31912.37345594284</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>25198.9672965979</v>
+        <v>25198.96729659788</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>457775.3608255375</v>
       </c>
       <c r="E4" t="n">
+        <v>347202.8644434896</v>
+      </c>
+      <c r="F4" t="n">
         <v>347202.8644434895</v>
-      </c>
-      <c r="F4" t="n">
-        <v>347202.8644434896</v>
       </c>
       <c r="G4" t="n">
         <v>414527.9152850744</v>
@@ -26439,13 +26439,13 @@
         <v>414527.9152850744</v>
       </c>
       <c r="J4" t="n">
-        <v>411476.3377615485</v>
+        <v>411476.3377615483</v>
       </c>
       <c r="K4" t="n">
         <v>411476.3377615486</v>
       </c>
       <c r="L4" t="n">
-        <v>411476.3377615486</v>
+        <v>411476.3377615485</v>
       </c>
       <c r="M4" t="n">
         <v>410753.2116605882</v>
@@ -26476,40 +26476,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>28087.85730525738</v>
+        <v>28087.85730525739</v>
       </c>
       <c r="F5" t="n">
         <v>28087.85730525738</v>
       </c>
       <c r="G5" t="n">
-        <v>38671.94760114805</v>
+        <v>38671.94760114804</v>
       </c>
       <c r="H5" t="n">
-        <v>38671.94760114805</v>
+        <v>38671.94760114806</v>
       </c>
       <c r="I5" t="n">
-        <v>38671.94760114805</v>
+        <v>38671.94760114807</v>
       </c>
       <c r="J5" t="n">
-        <v>56328.3011951392</v>
+        <v>56328.30119513919</v>
       </c>
       <c r="K5" t="n">
-        <v>56328.3011951392</v>
+        <v>56328.30119513921</v>
       </c>
       <c r="L5" t="n">
         <v>56328.3011951392</v>
       </c>
       <c r="M5" t="n">
-        <v>50411.83537130067</v>
+        <v>50411.83537130068</v>
       </c>
       <c r="N5" t="n">
         <v>50411.83537130069</v>
       </c>
       <c r="O5" t="n">
-        <v>50411.83537130069</v>
+        <v>50411.83537130068</v>
       </c>
       <c r="P5" t="n">
-        <v>50411.83537130068</v>
+        <v>50411.83537130067</v>
       </c>
     </row>
     <row r="6">
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-368511.5100179818</v>
+        <v>-368515.9235958498</v>
       </c>
       <c r="C6" t="n">
-        <v>-368511.5100179818</v>
+        <v>-368515.9235958498</v>
       </c>
       <c r="D6" t="n">
-        <v>-368511.5100179817</v>
+        <v>-368515.9235958498</v>
       </c>
       <c r="E6" t="n">
-        <v>-570758.8607301821</v>
+        <v>-571053.864610264</v>
       </c>
       <c r="F6" t="n">
-        <v>-269834.6890739948</v>
+        <v>-270129.6929540759</v>
       </c>
       <c r="G6" t="n">
         <v>-430761.7246200895</v>
       </c>
       <c r="H6" t="n">
-        <v>-330043.5974065799</v>
+        <v>-330043.59740658</v>
       </c>
       <c r="I6" t="n">
         <v>-330043.5974065799</v>
       </c>
       <c r="J6" t="n">
-        <v>-503397.5223749241</v>
+        <v>-503397.5223749238</v>
       </c>
       <c r="K6" t="n">
         <v>-344648.3734770453</v>
       </c>
       <c r="L6" t="n">
-        <v>-445366.5006905549</v>
+        <v>-445366.5006905547</v>
       </c>
       <c r="M6" t="n">
         <v>-369921.1550081891</v>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>190.6252904251602</v>
+      </c>
+      <c r="F2" t="n">
         <v>190.6252904251601</v>
       </c>
-      <c r="F2" t="n">
-        <v>190.6252904251602</v>
-      </c>
       <c r="G2" t="n">
-        <v>316.5229494420471</v>
+        <v>316.522949442047</v>
       </c>
       <c r="H2" t="n">
         <v>316.5229494420471</v>
       </c>
       <c r="I2" t="n">
-        <v>316.5229494420471</v>
+        <v>316.522949442047</v>
       </c>
       <c r="J2" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376341</v>
       </c>
       <c r="K2" t="n">
         <v>157.3963681376344</v>
       </c>
       <c r="L2" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="M2" t="n">
         <v>197.2868349575628</v>
       </c>
       <c r="N2" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575629</v>
       </c>
       <c r="O2" t="n">
         <v>197.2868349575628</v>
       </c>
       <c r="P2" t="n">
-        <v>197.2868349575627</v>
+        <v>197.2868349575628</v>
       </c>
     </row>
     <row r="3">
@@ -26777,7 +26777,7 @@
         <v>128.0808387881425</v>
       </c>
       <c r="P3" t="n">
-        <v>128.0808387881425</v>
+        <v>128.0808387881422</v>
       </c>
     </row>
     <row r="4">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>152.4673927454454</v>
+        <v>152.4673927454455</v>
       </c>
       <c r="F4" t="n">
-        <v>152.4673927454454</v>
+        <v>152.4673927454455</v>
       </c>
       <c r="G4" t="n">
-        <v>152.4673927454454</v>
+        <v>152.4673927454455</v>
       </c>
       <c r="H4" t="n">
-        <v>152.4673927454454</v>
+        <v>152.4673927454455</v>
       </c>
       <c r="I4" t="n">
-        <v>152.4673927454454</v>
+        <v>152.4673927454459</v>
       </c>
       <c r="J4" t="n">
-        <v>662.8944677071531</v>
+        <v>662.8944677071532</v>
       </c>
       <c r="K4" t="n">
-        <v>662.8944677071531</v>
+        <v>662.8944677071532</v>
       </c>
       <c r="L4" t="n">
-        <v>662.8944677071531</v>
+        <v>662.8944677071532</v>
       </c>
       <c r="M4" t="n">
-        <v>510.4270749617075</v>
+        <v>510.4270749617077</v>
       </c>
       <c r="N4" t="n">
-        <v>510.4270749617078</v>
+        <v>510.4270749617077</v>
       </c>
       <c r="O4" t="n">
-        <v>510.4270749617078</v>
+        <v>510.4270749617077</v>
       </c>
       <c r="P4" t="n">
-        <v>510.4270749617078</v>
+        <v>510.4270749617077</v>
       </c>
     </row>
   </sheetData>
@@ -26914,22 +26914,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>190.6252904251601</v>
+        <v>190.6252904251602</v>
       </c>
       <c r="F2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>-1.989519660128281e-13</v>
       </c>
       <c r="G2" t="n">
-        <v>125.8976590168869</v>
+        <v>125.897659016887</v>
       </c>
       <c r="H2" t="n">
         <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-8.526512829121202e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>31.49870912074738</v>
+        <v>31.49870912074741</v>
       </c>
       <c r="K2" t="n">
         <v>6.440581646448872e-14</v>
@@ -26938,13 +26938,13 @@
         <v>125.8976590168869</v>
       </c>
       <c r="M2" t="n">
-        <v>39.89046681992849</v>
+        <v>39.89046681992855</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>31.49870912074738</v>
+        <v>31.49870912074735</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>152.4673927454454</v>
+        <v>152.4673927454455</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>510.4270749617077</v>
+        <v>510.4270749617074</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.6252904251601</v>
+        <v>190.6252904251602</v>
       </c>
       <c r="K2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>125.8976590168869</v>
+        <v>125.897659016887</v>
       </c>
       <c r="M2" t="n">
         <v>5.684341886080801e-14</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>31.49870912074738</v>
+        <v>31.49870912074741</v>
       </c>
       <c r="P2" t="n">
         <v>6.440581646448872e-14</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>152.4673927454454</v>
+        <v>152.4673927454455</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>190.6252904251601</v>
+        <v>190.6252904251602</v>
       </c>
       <c r="C11" t="n">
-        <v>190.6252904251601</v>
+        <v>190.6252904251602</v>
       </c>
       <c r="D11" t="n">
-        <v>190.6252904251601</v>
+        <v>190.6252904251602</v>
       </c>
       <c r="E11" t="n">
-        <v>190.6252904251601</v>
+        <v>190.6252904251602</v>
       </c>
       <c r="F11" t="n">
-        <v>190.6252904251601</v>
+        <v>190.6252904251602</v>
       </c>
       <c r="G11" t="n">
-        <v>190.6252904251601</v>
+        <v>190.6252904251602</v>
       </c>
       <c r="H11" t="n">
-        <v>190.6252904251601</v>
+        <v>190.6252904251602</v>
       </c>
       <c r="I11" t="n">
         <v>190.6252904251602</v>
@@ -28138,25 +28138,25 @@
         <v>117.5251662244636</v>
       </c>
       <c r="S11" t="n">
-        <v>190.6252904251601</v>
+        <v>190.6252904251602</v>
       </c>
       <c r="T11" t="n">
-        <v>190.6252904251601</v>
+        <v>190.6252904251602</v>
       </c>
       <c r="U11" t="n">
-        <v>190.6252904251601</v>
+        <v>190.6252904251602</v>
       </c>
       <c r="V11" t="n">
-        <v>190.6252904251601</v>
+        <v>190.6252904251602</v>
       </c>
       <c r="W11" t="n">
-        <v>190.6252904251601</v>
+        <v>190.6252904251602</v>
       </c>
       <c r="X11" t="n">
-        <v>190.6252904251601</v>
+        <v>190.6252904251602</v>
       </c>
       <c r="Y11" t="n">
-        <v>190.6252904251601</v>
+        <v>190.6252904251602</v>
       </c>
     </row>
     <row r="12">
@@ -28169,13 +28169,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>20.2411062428703</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>43.03913916182746</v>
+        <v>149.2072108362118</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -28184,7 +28184,7 @@
         <v>137.0680225288361</v>
       </c>
       <c r="H12" t="n">
-        <v>109.5747460571428</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>79.9114009222932</v>
@@ -28217,25 +28217,25 @@
         <v>83.05300062542666</v>
       </c>
       <c r="S12" t="n">
-        <v>166.5659791013116</v>
+        <v>14.09858635586604</v>
       </c>
       <c r="T12" t="n">
-        <v>190.6252904251601</v>
+        <v>46.58689924327889</v>
       </c>
       <c r="U12" t="n">
-        <v>190.6252904251601</v>
+        <v>190.6252904251602</v>
       </c>
       <c r="V12" t="n">
-        <v>190.6252904251601</v>
+        <v>190.6252904251602</v>
       </c>
       <c r="W12" t="n">
-        <v>190.6252904251601</v>
+        <v>190.6252904251602</v>
       </c>
       <c r="X12" t="n">
-        <v>190.6252904251601</v>
+        <v>190.6252904251602</v>
       </c>
       <c r="Y12" t="n">
-        <v>190.6252904251601</v>
+        <v>190.6252904251602</v>
       </c>
     </row>
     <row r="13">
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.5619501558</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -28257,13 +28257,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>190.6252904251601</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>167.7600139114637</v>
       </c>
       <c r="H13" t="n">
-        <v>190.6252904251601</v>
+        <v>160.1736797150658</v>
       </c>
       <c r="I13" t="n">
         <v>148.5047140303538</v>
@@ -28290,31 +28290,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>66.82183659468487</v>
+        <v>152.2076596808696</v>
       </c>
       <c r="R13" t="n">
         <v>166.9083450059211</v>
       </c>
       <c r="S13" t="n">
-        <v>190.6252904251601</v>
+        <v>190.6252904251602</v>
       </c>
       <c r="T13" t="n">
-        <v>190.6252904251601</v>
+        <v>190.6252904251602</v>
       </c>
       <c r="U13" t="n">
-        <v>190.6252904251601</v>
+        <v>190.6252904251602</v>
       </c>
       <c r="V13" t="n">
-        <v>190.6252904251601</v>
+        <v>190.6252904251602</v>
       </c>
       <c r="W13" t="n">
-        <v>190.6252904251601</v>
+        <v>190.6252904251602</v>
       </c>
       <c r="X13" t="n">
-        <v>190.6252904251601</v>
+        <v>190.6252904251602</v>
       </c>
       <c r="Y13" t="n">
-        <v>190.6252904251601</v>
+        <v>190.6252904251602</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>190.6252904251602</v>
+        <v>190.6252904251601</v>
       </c>
       <c r="C14" t="n">
-        <v>190.6252904251602</v>
+        <v>190.6252904251601</v>
       </c>
       <c r="D14" t="n">
-        <v>190.6252904251602</v>
+        <v>190.6252904251601</v>
       </c>
       <c r="E14" t="n">
-        <v>190.6252904251602</v>
+        <v>190.6252904251601</v>
       </c>
       <c r="F14" t="n">
-        <v>190.6252904251602</v>
+        <v>190.6252904251601</v>
       </c>
       <c r="G14" t="n">
-        <v>190.6252904251602</v>
+        <v>190.6252904251601</v>
       </c>
       <c r="H14" t="n">
-        <v>190.6252904251602</v>
+        <v>190.6252904251601</v>
       </c>
       <c r="I14" t="n">
         <v>190.6252904251602</v>
@@ -28375,25 +28375,25 @@
         <v>117.5251662244636</v>
       </c>
       <c r="S14" t="n">
-        <v>190.6252904251602</v>
+        <v>190.6252904251601</v>
       </c>
       <c r="T14" t="n">
-        <v>190.6252904251602</v>
+        <v>190.6252904251601</v>
       </c>
       <c r="U14" t="n">
-        <v>190.6252904251602</v>
+        <v>190.6252904251601</v>
       </c>
       <c r="V14" t="n">
-        <v>190.6252904251602</v>
+        <v>190.6252904251601</v>
       </c>
       <c r="W14" t="n">
-        <v>190.6252904251602</v>
+        <v>190.6252904251601</v>
       </c>
       <c r="X14" t="n">
-        <v>190.6252904251602</v>
+        <v>190.6252904251601</v>
       </c>
       <c r="Y14" t="n">
-        <v>190.6252904251602</v>
+        <v>190.6252904251601</v>
       </c>
     </row>
     <row r="15">
@@ -28403,10 +28403,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>14.06579090442182</v>
       </c>
       <c r="C15" t="n">
-        <v>20.2411062428703</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -28418,10 +28418,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>49.4677163057362</v>
+        <v>137.0680225288361</v>
       </c>
       <c r="H15" t="n">
-        <v>109.5747460571428</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>79.9114009222932</v>
@@ -28457,22 +28457,22 @@
         <v>166.5659791013116</v>
       </c>
       <c r="T15" t="n">
-        <v>190.6252904251602</v>
+        <v>190.6252904251601</v>
       </c>
       <c r="U15" t="n">
-        <v>190.6252904251602</v>
+        <v>190.6252904251601</v>
       </c>
       <c r="V15" t="n">
-        <v>190.6252904251602</v>
+        <v>190.6252904251601</v>
       </c>
       <c r="W15" t="n">
-        <v>99.22759041547417</v>
+        <v>190.6252904251601</v>
       </c>
       <c r="X15" t="n">
-        <v>190.6252904251602</v>
+        <v>190.6252904251601</v>
       </c>
       <c r="Y15" t="n">
-        <v>190.6252904251602</v>
+        <v>121.2020302495174</v>
       </c>
     </row>
     <row r="16">
@@ -28482,16 +28482,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>190.6252904251602</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>190.6252904251601</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>189.8099683258075</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -28527,31 +28527,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>117.697404018408</v>
+        <v>66.82183659468487</v>
       </c>
       <c r="R16" t="n">
-        <v>190.6252904251602</v>
+        <v>166.9083450059211</v>
       </c>
       <c r="S16" t="n">
-        <v>190.6252904251602</v>
+        <v>190.6252904251601</v>
       </c>
       <c r="T16" t="n">
-        <v>190.6252904251602</v>
+        <v>190.6252904251601</v>
       </c>
       <c r="U16" t="n">
-        <v>190.6252904251602</v>
+        <v>190.6252904251601</v>
       </c>
       <c r="V16" t="n">
-        <v>190.6252904251602</v>
+        <v>190.6252904251601</v>
       </c>
       <c r="W16" t="n">
-        <v>190.6252904251602</v>
+        <v>190.6252904251601</v>
       </c>
       <c r="X16" t="n">
-        <v>190.6252904251602</v>
+        <v>190.6252904251601</v>
       </c>
       <c r="Y16" t="n">
-        <v>190.6252904251602</v>
+        <v>190.6252904251601</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>316.5229494420471</v>
+        <v>316.522949442047</v>
       </c>
       <c r="C17" t="n">
-        <v>316.5229494420471</v>
+        <v>316.522949442047</v>
       </c>
       <c r="D17" t="n">
-        <v>316.5229494420471</v>
+        <v>316.522949442047</v>
       </c>
       <c r="E17" t="n">
-        <v>316.5229494420471</v>
+        <v>316.522949442047</v>
       </c>
       <c r="F17" t="n">
-        <v>316.5229494420471</v>
+        <v>316.522949442047</v>
       </c>
       <c r="G17" t="n">
-        <v>316.5229494420471</v>
+        <v>316.522949442047</v>
       </c>
       <c r="H17" t="n">
-        <v>316.5229494420471</v>
+        <v>316.522949442047</v>
       </c>
       <c r="I17" t="n">
         <v>190.6252904251602</v>
@@ -28621,16 +28621,16 @@
         <v>251.3044610802865</v>
       </c>
       <c r="V17" t="n">
-        <v>316.5229494420471</v>
+        <v>316.522949442047</v>
       </c>
       <c r="W17" t="n">
-        <v>316.5229494420471</v>
+        <v>316.522949442047</v>
       </c>
       <c r="X17" t="n">
-        <v>316.5229494420471</v>
+        <v>316.522949442047</v>
       </c>
       <c r="Y17" t="n">
-        <v>316.5229494420471</v>
+        <v>316.522949442047</v>
       </c>
     </row>
     <row r="18">
@@ -28643,16 +28643,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>25.99471192525914</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>5.177687709955507</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>137.0680225288361</v>
@@ -28661,7 +28661,7 @@
         <v>109.5747460571428</v>
       </c>
       <c r="I18" t="n">
-        <v>79.9114009222932</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28697,19 +28697,19 @@
         <v>199.0542919887244</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9232574339765</v>
+        <v>73.45586468853097</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>99.22759041547408</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>146.2784899886024</v>
       </c>
     </row>
     <row r="19">
@@ -28728,7 +28728,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -28737,10 +28737,10 @@
         <v>167.7600139114637</v>
       </c>
       <c r="H19" t="n">
-        <v>154.3822126289081</v>
+        <v>160.1736797150658</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>148.5047140303538</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28788,7 +28788,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>210.7224348821526</v>
       </c>
     </row>
     <row r="20">
@@ -28880,16 +28880,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>20.2411062428703</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>10.9312933923444</v>
+        <v>5.177687709955421</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.0680225288361</v>
@@ -28934,13 +28934,13 @@
         <v>199.0542919887244</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9232574339765</v>
+        <v>73.45586468853097</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>80.33319440397975</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>117.4017036307312</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -28962,13 +28962,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>167.7600139114637</v>
@@ -28980,7 +28980,7 @@
         <v>148.5047140303538</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>77.0299230141255</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>66.82183659468487</v>
       </c>
       <c r="R22" t="n">
-        <v>166.9083450059211</v>
+        <v>17.37587729881167</v>
       </c>
       <c r="S22" t="n">
         <v>219.9915002016137</v>
@@ -29019,7 +29019,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>210.826028648326</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>316.5229494420471</v>
+        <v>316.522949442047</v>
       </c>
       <c r="C23" t="n">
-        <v>316.5229494420471</v>
+        <v>316.522949442047</v>
       </c>
       <c r="D23" t="n">
-        <v>316.5229494420471</v>
+        <v>316.522949442047</v>
       </c>
       <c r="E23" t="n">
-        <v>316.5229494420471</v>
+        <v>316.522949442047</v>
       </c>
       <c r="F23" t="n">
-        <v>316.5229494420471</v>
+        <v>316.522949442047</v>
       </c>
       <c r="G23" t="n">
-        <v>316.5229494420471</v>
+        <v>316.522949442047</v>
       </c>
       <c r="H23" t="n">
-        <v>316.5229494420471</v>
+        <v>316.522949442047</v>
       </c>
       <c r="I23" t="n">
         <v>190.6252904251602</v>
@@ -29095,16 +29095,16 @@
         <v>251.3044610802865</v>
       </c>
       <c r="V23" t="n">
-        <v>316.5229494420471</v>
+        <v>316.522949442047</v>
       </c>
       <c r="W23" t="n">
-        <v>316.5229494420471</v>
+        <v>316.522949442047</v>
       </c>
       <c r="X23" t="n">
-        <v>316.5229494420471</v>
+        <v>316.522949442047</v>
       </c>
       <c r="Y23" t="n">
-        <v>316.5229494420471</v>
+        <v>316.522949442047</v>
       </c>
     </row>
     <row r="24">
@@ -29114,7 +29114,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>14.0657909044219</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -29162,16 +29162,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>83.05300062542666</v>
+        <v>28.67112201753118</v>
       </c>
       <c r="S24" t="n">
-        <v>112.1841004934165</v>
+        <v>14.09858635586567</v>
       </c>
       <c r="T24" t="n">
-        <v>46.58689924327897</v>
+        <v>46.58689924327852</v>
       </c>
       <c r="U24" t="n">
-        <v>73.45586468853107</v>
+        <v>73.45586468853061</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -29196,16 +29196,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>14.77942835318194</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>70.73699295830414</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.7600139114637</v>
@@ -29217,7 +29217,7 @@
         <v>148.5047140303538</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>77.0299230141255</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,13 +29238,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.82183659468487</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>166.9083450059211</v>
       </c>
       <c r="S25" t="n">
-        <v>219.9915002016137</v>
+        <v>141.1327888164226</v>
       </c>
       <c r="T25" t="n">
         <v>226.9587370638483</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376341</v>
       </c>
       <c r="C26" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376341</v>
       </c>
       <c r="D26" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376341</v>
       </c>
       <c r="E26" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376341</v>
       </c>
       <c r="F26" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376341</v>
       </c>
       <c r="G26" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376341</v>
       </c>
       <c r="H26" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376341</v>
       </c>
       <c r="I26" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376341</v>
       </c>
       <c r="J26" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376341</v>
       </c>
       <c r="K26" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376341</v>
       </c>
       <c r="L26" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376341</v>
       </c>
       <c r="M26" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376341</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>157.3963681376341</v>
       </c>
       <c r="O26" t="n">
-        <v>157.3963681376344</v>
+        <v>1.500785822421904</v>
       </c>
       <c r="P26" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376341</v>
       </c>
       <c r="Q26" t="n">
-        <v>119.0259520468835</v>
+        <v>157.3963681376341</v>
       </c>
       <c r="R26" t="n">
-        <v>157.3963681376344</v>
+        <v>117.5251662244636</v>
       </c>
       <c r="S26" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376341</v>
       </c>
       <c r="T26" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376341</v>
       </c>
       <c r="U26" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376341</v>
       </c>
       <c r="V26" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376341</v>
       </c>
       <c r="W26" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376341</v>
       </c>
       <c r="X26" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376341</v>
       </c>
       <c r="Y26" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376341</v>
       </c>
     </row>
     <row r="27">
@@ -29357,16 +29357,16 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.3963681376344</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>62.14004642470803</v>
+        <v>52.18874385171348</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -29402,22 +29402,22 @@
         <v>83.05300062542666</v>
       </c>
       <c r="S27" t="n">
-        <v>157.3963681376344</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376341</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>157.3963681376341</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>157.3963681376341</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>157.3963681376341</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -29430,31 +29430,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376341</v>
       </c>
       <c r="C28" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376341</v>
       </c>
       <c r="D28" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376341</v>
       </c>
       <c r="E28" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376341</v>
       </c>
       <c r="F28" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376341</v>
       </c>
       <c r="G28" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376341</v>
       </c>
       <c r="H28" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376341</v>
       </c>
       <c r="I28" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376341</v>
       </c>
       <c r="J28" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376341</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -29463,43 +29463,43 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>9.81791494592143</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>9.817914945926773</v>
       </c>
       <c r="O28" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376341</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376341</v>
       </c>
       <c r="R28" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376341</v>
       </c>
       <c r="S28" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376341</v>
       </c>
       <c r="T28" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376341</v>
       </c>
       <c r="U28" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376341</v>
       </c>
       <c r="V28" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376341</v>
       </c>
       <c r="W28" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376341</v>
       </c>
       <c r="X28" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376341</v>
       </c>
       <c r="Y28" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376341</v>
       </c>
     </row>
     <row r="29">
@@ -29533,22 +29533,22 @@
         <v>157.3963681376344</v>
       </c>
       <c r="J29" t="n">
+        <v>119.0259520468846</v>
+      </c>
+      <c r="K29" t="n">
         <v>157.3963681376344</v>
-      </c>
-      <c r="K29" t="n">
-        <v>119.0259520468843</v>
       </c>
       <c r="L29" t="n">
         <v>157.3963681376344</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>157.3963681376344</v>
       </c>
       <c r="N29" t="n">
         <v>157.3963681376344</v>
       </c>
       <c r="O29" t="n">
-        <v>157.3963681376344</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>157.3963681376344</v>
@@ -29594,22 +29594,22 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>137.0680225288361</v>
       </c>
       <c r="H30" t="n">
-        <v>109.5747460571428</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>79.9114009222932</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29642,7 +29642,7 @@
         <v>157.3963681376344</v>
       </c>
       <c r="T30" t="n">
-        <v>52.75446636295956</v>
+        <v>82.4683920335064</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -29657,7 +29657,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>157.3963681376344</v>
       </c>
     </row>
     <row r="31">
@@ -29679,7 +29679,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>157.3963681376344</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>157.3963681376344</v>
@@ -29688,10 +29688,10 @@
         <v>157.3963681376344</v>
       </c>
       <c r="I31" t="n">
-        <v>148.5047140303538</v>
+        <v>157.3963681376344</v>
       </c>
       <c r="J31" t="n">
-        <v>77.0299230141255</v>
+        <v>157.3963681376344</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -29703,16 +29703,16 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>41.53653567111242</v>
+      </c>
+      <c r="P31" t="n">
         <v>157.3963681376344</v>
       </c>
-      <c r="O31" t="n">
+      <c r="Q31" t="n">
         <v>157.3963681376344</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>118.8193147871992</v>
       </c>
       <c r="R31" t="n">
         <v>157.3963681376344</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="C32" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="D32" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="E32" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="F32" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="G32" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="H32" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="I32" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="K32" t="n">
-        <v>119.0259520468843</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="L32" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="M32" t="n">
-        <v>157.3963681376344</v>
+        <v>1.500785822421165</v>
       </c>
       <c r="N32" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="O32" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="P32" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="Q32" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="R32" t="n">
-        <v>157.3963681376344</v>
+        <v>117.5251662244636</v>
       </c>
       <c r="S32" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="T32" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="U32" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="V32" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="W32" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="X32" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="Y32" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376343</v>
       </c>
     </row>
     <row r="33">
@@ -29837,10 +29837,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>32.42612075416137</v>
+        <v>137.0680225288361</v>
       </c>
       <c r="H33" t="n">
         <v>109.5747460571428</v>
@@ -29876,13 +29876,13 @@
         <v>83.05300062542666</v>
       </c>
       <c r="S33" t="n">
-        <v>157.3963681376344</v>
+        <v>40.4273106187092</v>
       </c>
       <c r="T33" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -29904,40 +29904,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="C34" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="D34" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="E34" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="F34" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="G34" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="H34" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="I34" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="J34" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="K34" t="n">
-        <v>157.3963681376344</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>9.817914945923619</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -29946,34 +29946,34 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>9.817914945922539</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="Q34" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="R34" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="S34" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="T34" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="U34" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="V34" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="W34" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="X34" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376343</v>
       </c>
       <c r="Y34" t="n">
-        <v>157.3963681376344</v>
+        <v>157.3963681376343</v>
       </c>
     </row>
     <row r="35">
@@ -30007,7 +30007,7 @@
         <v>197.2868349575628</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>197.2868349575628</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -30022,13 +30022,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>197.2868349575628</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>197.2868349575628</v>
       </c>
       <c r="Q35" t="n">
-        <v>18.56920732023698</v>
+        <v>18.56920732023745</v>
       </c>
       <c r="R35" t="n">
         <v>197.2868349575628</v>
@@ -30080,10 +30080,10 @@
         <v>137.0680225288361</v>
       </c>
       <c r="H36" t="n">
-        <v>109.5747460571428</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>79.9114009222932</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30116,7 +30116,7 @@
         <v>166.5659791013116</v>
       </c>
       <c r="T36" t="n">
-        <v>188.6540677926661</v>
+        <v>197.2868349575628</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -30131,7 +30131,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>180.8533798145393</v>
       </c>
     </row>
     <row r="37">
@@ -30141,10 +30141,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>197.2868349575628</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>187.6001833212187</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -30162,7 +30162,7 @@
         <v>160.1736797150658</v>
       </c>
       <c r="I37" t="n">
-        <v>186.3129310285701</v>
+        <v>148.5047140303538</v>
       </c>
       <c r="J37" t="n">
         <v>77.0299230141255</v>
@@ -30220,34 +30220,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575629</v>
       </c>
       <c r="C38" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575629</v>
       </c>
       <c r="D38" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575629</v>
       </c>
       <c r="E38" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575629</v>
       </c>
       <c r="F38" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575629</v>
       </c>
       <c r="G38" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575629</v>
       </c>
       <c r="H38" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575629</v>
       </c>
       <c r="I38" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575629</v>
       </c>
       <c r="J38" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575629</v>
       </c>
       <c r="K38" t="n">
-        <v>197.2868349575628</v>
+        <v>18.56920732023735</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -30256,7 +30256,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>18.56920732023821</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -30265,31 +30265,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>197.2868349575629</v>
       </c>
       <c r="R38" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575629</v>
       </c>
       <c r="S38" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575629</v>
       </c>
       <c r="T38" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575629</v>
       </c>
       <c r="U38" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575629</v>
       </c>
       <c r="V38" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575629</v>
       </c>
       <c r="W38" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575629</v>
       </c>
       <c r="X38" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575629</v>
       </c>
       <c r="Y38" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575629</v>
       </c>
     </row>
     <row r="39">
@@ -30299,10 +30299,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -30320,7 +30320,7 @@
         <v>109.5747460571428</v>
       </c>
       <c r="I39" t="n">
-        <v>40.55777790114532</v>
+        <v>79.9114009222932</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30353,10 +30353,10 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>197.2868349575628</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>197.2868349575628</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -30368,7 +30368,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>15.97836425579459</v>
       </c>
     </row>
     <row r="40">
@@ -30399,7 +30399,7 @@
         <v>160.1736797150658</v>
       </c>
       <c r="I40" t="n">
-        <v>186.3129310285701</v>
+        <v>155.9344410769276</v>
       </c>
       <c r="J40" t="n">
         <v>77.0299230141255</v>
@@ -30426,28 +30426,28 @@
         <v>66.82183659468487</v>
       </c>
       <c r="R40" t="n">
-        <v>166.9083450059211</v>
+        <v>197.2868349575629</v>
       </c>
       <c r="S40" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575629</v>
       </c>
       <c r="T40" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575629</v>
       </c>
       <c r="U40" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575629</v>
       </c>
       <c r="V40" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575629</v>
       </c>
       <c r="W40" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575629</v>
       </c>
       <c r="X40" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575629</v>
       </c>
       <c r="Y40" t="n">
-        <v>197.2868349575628</v>
+        <v>197.2868349575629</v>
       </c>
     </row>
     <row r="41">
@@ -30481,28 +30481,28 @@
         <v>197.2868349575628</v>
       </c>
       <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>197.2868349575628</v>
       </c>
-      <c r="K41" t="n">
+      <c r="P41" t="n">
         <v>197.2868349575628</v>
       </c>
-      <c r="L41" t="n">
-        <v>18.56920732023821</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>18.56920732023721</v>
       </c>
       <c r="R41" t="n">
         <v>197.2868349575628</v>
@@ -30542,7 +30542,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -30590,10 +30590,10 @@
         <v>166.5659791013116</v>
       </c>
       <c r="T42" t="n">
-        <v>41.20900222802737</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>188.654067792666</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -30624,7 +30624,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>184.2421796447853</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -30639,7 +30639,7 @@
         <v>148.5047140303538</v>
       </c>
       <c r="J43" t="n">
-        <v>114.8381400123418</v>
+        <v>77.0299230141255</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30694,40 +30694,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>197.2868349575627</v>
+        <v>197.2868349575628</v>
       </c>
       <c r="C44" t="n">
-        <v>197.2868349575627</v>
+        <v>197.2868349575628</v>
       </c>
       <c r="D44" t="n">
-        <v>197.2868349575627</v>
+        <v>197.2868349575628</v>
       </c>
       <c r="E44" t="n">
-        <v>197.2868349575627</v>
+        <v>197.2868349575628</v>
       </c>
       <c r="F44" t="n">
-        <v>197.2868349575627</v>
+        <v>197.2868349575628</v>
       </c>
       <c r="G44" t="n">
-        <v>197.2868349575627</v>
+        <v>197.2868349575628</v>
       </c>
       <c r="H44" t="n">
-        <v>197.2868349575627</v>
+        <v>197.2868349575628</v>
       </c>
       <c r="I44" t="n">
-        <v>197.2868349575627</v>
+        <v>197.2868349575628</v>
       </c>
       <c r="J44" t="n">
-        <v>18.56920732023816</v>
+        <v>197.2868349575628</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>197.2868349575627</v>
+        <v>18.56920732023895</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>197.2868349575628</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -30739,31 +30739,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>197.2868349575627</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>197.2868349575627</v>
+        <v>197.2868349575628</v>
       </c>
       <c r="S44" t="n">
-        <v>197.2868349575627</v>
+        <v>197.2868349575628</v>
       </c>
       <c r="T44" t="n">
-        <v>197.2868349575627</v>
+        <v>197.2868349575628</v>
       </c>
       <c r="U44" t="n">
-        <v>197.2868349575627</v>
+        <v>197.2868349575628</v>
       </c>
       <c r="V44" t="n">
-        <v>197.2868349575627</v>
+        <v>197.2868349575628</v>
       </c>
       <c r="W44" t="n">
-        <v>197.2868349575627</v>
+        <v>197.2868349575628</v>
       </c>
       <c r="X44" t="n">
-        <v>197.2868349575627</v>
+        <v>197.2868349575628</v>
       </c>
       <c r="Y44" t="n">
-        <v>197.2868349575627</v>
+        <v>197.2868349575628</v>
       </c>
     </row>
     <row r="45">
@@ -30791,10 +30791,10 @@
         <v>137.0680225288361</v>
       </c>
       <c r="H45" t="n">
-        <v>109.5747460571428</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>79.9114009222932</v>
+        <v>79.91140092229323</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,19 +30821,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>83.05300062542666</v>
+        <v>83.05300062542671</v>
       </c>
       <c r="S45" t="n">
         <v>166.5659791013116</v>
       </c>
       <c r="T45" t="n">
-        <v>188.6540677926661</v>
+        <v>197.2868349575628</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>100.9419788922475</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -30876,7 +30876,7 @@
         <v>148.5047140303538</v>
       </c>
       <c r="J46" t="n">
-        <v>77.0299230141255</v>
+        <v>77.02992301412553</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>104.6300535929015</v>
+        <v>74.2515636412603</v>
       </c>
       <c r="R46" t="n">
-        <v>166.9083450059211</v>
+        <v>197.2868349575628</v>
       </c>
       <c r="S46" t="n">
-        <v>197.2868349575627</v>
+        <v>197.2868349575628</v>
       </c>
       <c r="T46" t="n">
-        <v>197.2868349575627</v>
+        <v>197.2868349575628</v>
       </c>
       <c r="U46" t="n">
-        <v>197.2868349575627</v>
+        <v>197.2868349575628</v>
       </c>
       <c r="V46" t="n">
-        <v>197.2868349575627</v>
+        <v>197.2868349575628</v>
       </c>
       <c r="W46" t="n">
-        <v>197.2868349575627</v>
+        <v>197.2868349575628</v>
       </c>
       <c r="X46" t="n">
-        <v>197.2868349575627</v>
+        <v>197.2868349575628</v>
       </c>
       <c r="Y46" t="n">
-        <v>197.2868349575627</v>
+        <v>197.2868349575628</v>
       </c>
     </row>
   </sheetData>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5148978443744419</v>
+        <v>0.5148978443744405</v>
       </c>
       <c r="H44" t="n">
-        <v>5.273197548699754</v>
+        <v>5.27319754869974</v>
       </c>
       <c r="I44" t="n">
-        <v>19.85059914524569</v>
+        <v>19.85059914524564</v>
       </c>
       <c r="J44" t="n">
-        <v>43.70131091897532</v>
+        <v>43.70131091897522</v>
       </c>
       <c r="K44" t="n">
-        <v>65.49693667134545</v>
+        <v>65.4969366713453</v>
       </c>
       <c r="L44" t="n">
-        <v>81.2547415761198</v>
+        <v>81.2547415761196</v>
       </c>
       <c r="M44" t="n">
-        <v>90.41155611601377</v>
+        <v>90.41155611601356</v>
       </c>
       <c r="N44" t="n">
-        <v>91.87450961634266</v>
+        <v>91.87450961634244</v>
       </c>
       <c r="O44" t="n">
-        <v>86.75449417634431</v>
+        <v>86.7544941763441</v>
       </c>
       <c r="P44" t="n">
-        <v>74.04295364335026</v>
+        <v>74.04295364335007</v>
       </c>
       <c r="Q44" t="n">
-        <v>55.60317459169055</v>
+        <v>55.6031745916904</v>
       </c>
       <c r="R44" t="n">
-        <v>32.34395171668606</v>
+        <v>32.34395171668598</v>
       </c>
       <c r="S44" t="n">
-        <v>11.7332346286826</v>
+        <v>11.73323462868258</v>
       </c>
       <c r="T44" t="n">
-        <v>2.25396531374912</v>
+        <v>2.253965313749115</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04119182754995534</v>
+        <v>0.04119182754995523</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2754946343744952</v>
+        <v>0.2754946343744945</v>
       </c>
       <c r="H45" t="n">
-        <v>2.660698179353678</v>
+        <v>2.660698179353671</v>
       </c>
       <c r="I45" t="n">
-        <v>9.485231929121875</v>
+        <v>9.485231929121852</v>
       </c>
       <c r="J45" t="n">
-        <v>26.02820139939036</v>
+        <v>26.02820139939029</v>
       </c>
       <c r="K45" t="n">
-        <v>44.48634190248153</v>
+        <v>44.48634190248143</v>
       </c>
       <c r="L45" t="n">
-        <v>59.81737664346222</v>
+        <v>59.81737664346208</v>
       </c>
       <c r="M45" t="n">
-        <v>69.80405713953765</v>
+        <v>69.80405713953748</v>
       </c>
       <c r="N45" t="n">
-        <v>71.65156282356662</v>
+        <v>71.65156282356645</v>
       </c>
       <c r="O45" t="n">
-        <v>65.54718171453176</v>
+        <v>65.54718171453159</v>
       </c>
       <c r="P45" t="n">
-        <v>52.60739206752971</v>
+        <v>52.60739206752957</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.16664841594434</v>
+        <v>35.16664841594425</v>
       </c>
       <c r="R45" t="n">
-        <v>17.10483352721647</v>
+        <v>17.10483352721643</v>
       </c>
       <c r="S45" t="n">
-        <v>5.117192002526256</v>
+        <v>5.117192002526243</v>
       </c>
       <c r="T45" t="n">
-        <v>1.110436706097197</v>
+        <v>1.110436706097195</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01812464699832206</v>
+        <v>0.01812464699832202</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.230965446995011</v>
+        <v>0.2309654469950105</v>
       </c>
       <c r="H46" t="n">
-        <v>2.053492792373827</v>
+        <v>2.053492792373822</v>
       </c>
       <c r="I46" t="n">
-        <v>6.945760896904516</v>
+        <v>6.945760896904499</v>
       </c>
       <c r="J46" t="n">
-        <v>16.32925710254728</v>
+        <v>16.32925710254724</v>
       </c>
       <c r="K46" t="n">
-        <v>26.83398556905673</v>
+        <v>26.83398556905667</v>
       </c>
       <c r="L46" t="n">
-        <v>34.33826291051283</v>
+        <v>34.33826291051275</v>
       </c>
       <c r="M46" t="n">
-        <v>36.20488365940886</v>
+        <v>36.20488365940877</v>
       </c>
       <c r="N46" t="n">
-        <v>35.34401244788203</v>
+        <v>35.34401244788194</v>
       </c>
       <c r="O46" t="n">
-        <v>32.64591608980394</v>
+        <v>32.64591608980385</v>
       </c>
       <c r="P46" t="n">
-        <v>27.93422097110569</v>
+        <v>27.93422097110562</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.34020665700952</v>
+        <v>19.34020665700947</v>
       </c>
       <c r="R46" t="n">
-        <v>10.3850463712484</v>
+        <v>10.38504637124838</v>
       </c>
       <c r="S46" t="n">
-        <v>4.025097835358509</v>
+        <v>4.025097835358499</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9868523644332288</v>
+        <v>0.9868523644332263</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01259811529063698</v>
+        <v>0.01259811529063695</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35413,22 +35413,22 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>114.5550724842969</v>
+        <v>152.4673927454455</v>
       </c>
       <c r="M11" t="n">
-        <v>152.4673927454454</v>
+        <v>68.94259710715131</v>
       </c>
       <c r="N11" t="n">
-        <v>152.4673927454454</v>
+        <v>152.4673927454455</v>
       </c>
       <c r="O11" t="n">
-        <v>152.4673927454454</v>
+        <v>152.4673927454455</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>45.61247537714574</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>25.2816100731325</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>152.4673927454454</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>15.76332190975534</v>
+        <v>41.04493198288787</v>
       </c>
       <c r="N12" t="n">
-        <v>152.4673927454454</v>
+        <v>152.4673927454455</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>152.4673927454455</v>
       </c>
       <c r="P12" t="n">
-        <v>152.4673927454454</v>
+        <v>152.4673927454455</v>
       </c>
       <c r="Q12" t="n">
         <v>105.2621620657719</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.729969973862687</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -35553,13 +35553,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>45.20424240222886</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>30.45161071009435</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -35586,7 +35586,7 @@
         <v>25.21278023599918</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>85.38582308618473</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,25 +35647,25 @@
         <v>31.75202156436281</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>152.4673927454455</v>
       </c>
       <c r="L14" t="n">
-        <v>152.4673927454454</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>152.4673927454454</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>152.4673927454454</v>
+        <v>152.4673927454455</v>
       </c>
       <c r="O14" t="n">
-        <v>114.5550724842969</v>
+        <v>68.94259710715131</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>152.4673927454455</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>45.61247537714574</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>25.2816100731325</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>152.4673927454454</v>
+        <v>152.4673927454455</v>
       </c>
       <c r="M15" t="n">
-        <v>152.4673927454454</v>
+        <v>152.4673927454455</v>
       </c>
       <c r="N15" t="n">
-        <v>152.4673927454454</v>
+        <v>146.3070940486598</v>
       </c>
       <c r="O15" t="n">
-        <v>121.0254839755272</v>
+        <v>152.4673927454455</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35778,16 +35778,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10.79331024322289</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>42.00981740694772</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>43.37600567923828</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -35823,10 +35823,10 @@
         <v>25.21278023599918</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.87556742372309</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>23.71694541923911</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>31.75202156436281</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>152.4673927454454</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>68.94259710715131</v>
       </c>
       <c r="N17" t="n">
-        <v>152.4673927454454</v>
+        <v>152.4673927454455</v>
       </c>
       <c r="O17" t="n">
-        <v>152.4673927454454</v>
+        <v>152.4673927454455</v>
       </c>
       <c r="P17" t="n">
-        <v>146.3070940486597</v>
+        <v>152.4673927454455</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>45.61247537714574</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>152.4673927454455</v>
       </c>
       <c r="L18" t="n">
-        <v>152.4673927454454</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>152.4673927454454</v>
+        <v>152.4673927454455</v>
       </c>
       <c r="N18" t="n">
-        <v>152.4673927454454</v>
+        <v>146.3070940486598</v>
       </c>
       <c r="O18" t="n">
-        <v>146.3070940486597</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>152.4673927454455</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>31.75202156436281</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -36127,19 +36127,19 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>152.4673927454454</v>
+        <v>68.94259710715131</v>
       </c>
       <c r="N20" t="n">
-        <v>146.3070940486597</v>
+        <v>152.4673927454455</v>
       </c>
       <c r="O20" t="n">
-        <v>152.4673927454454</v>
+        <v>152.4673927454455</v>
       </c>
       <c r="P20" t="n">
-        <v>152.4673927454454</v>
+        <v>152.4673927454455</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>45.61247537714574</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>25.2816100731325</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>152.4673927454455</v>
       </c>
       <c r="L21" t="n">
-        <v>152.4673927454454</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>152.4673927454454</v>
+        <v>152.4673927454455</v>
       </c>
       <c r="N21" t="n">
-        <v>152.4673927454454</v>
+        <v>15.76332190975537</v>
       </c>
       <c r="O21" t="n">
-        <v>146.3070940486597</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>152.4673927454455</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>105.2621620657719</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,22 +36358,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>152.4673927454459</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>100.694618671514</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>152.4673927454454</v>
+        <v>152.4673927454459</v>
       </c>
       <c r="O23" t="n">
-        <v>152.4673927454454</v>
+        <v>100.6946186715145</v>
       </c>
       <c r="P23" t="n">
-        <v>152.4673927454454</v>
+        <v>152.4673927454459</v>
       </c>
       <c r="Q23" t="n">
         <v>45.61247537714574</v>
@@ -36437,19 +36437,19 @@
         <v>25.2816100731325</v>
       </c>
       <c r="K24" t="n">
-        <v>152.4673927454454</v>
+        <v>152.4673927454459</v>
       </c>
       <c r="L24" t="n">
-        <v>152.4673927454454</v>
+        <v>152.4673927454459</v>
       </c>
       <c r="M24" t="n">
-        <v>152.4673927454454</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>121.0254839755272</v>
+        <v>121.0254839755277</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>152.4673927454459</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>189.1483897019972</v>
+        <v>189.148389701997</v>
       </c>
       <c r="K26" t="n">
-        <v>326.9488663351641</v>
+        <v>326.9488663351638</v>
       </c>
       <c r="L26" t="n">
-        <v>420.5459092942174</v>
+        <v>420.5459092942171</v>
       </c>
       <c r="M26" t="n">
-        <v>466.9752245192079</v>
+        <v>466.9752245192077</v>
       </c>
       <c r="N26" t="n">
-        <v>299.8083704317359</v>
+        <v>457.20473856937</v>
       </c>
       <c r="O26" t="n">
-        <v>394.8528321550374</v>
+        <v>238.9572498398248</v>
       </c>
       <c r="P26" t="n">
-        <v>322.0050341971978</v>
+        <v>322.0050341971975</v>
       </c>
       <c r="Q26" t="n">
-        <v>164.6384274240293</v>
+        <v>203.0088435147799</v>
       </c>
       <c r="R26" t="n">
-        <v>39.8712019131708</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36732,13 +36732,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>8.78089511942207</v>
+        <v>8.780895119421785</v>
       </c>
       <c r="E28" t="n">
-        <v>10.96240549106525</v>
+        <v>10.96240549106497</v>
       </c>
       <c r="F28" t="n">
-        <v>11.97532011470318</v>
+        <v>11.9753201147029</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36747,10 +36747,10 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>8.891654107280658</v>
+        <v>8.891654107280374</v>
       </c>
       <c r="J28" t="n">
-        <v>80.36644512350892</v>
+        <v>80.36644512350864</v>
       </c>
       <c r="K28" t="n">
         <v>4.56449374317388</v>
@@ -36759,19 +36759,19 @@
         <v>61.92828817082897</v>
       </c>
       <c r="M28" t="n">
-        <v>85.60667556717088</v>
+        <v>75.78876062124945</v>
       </c>
       <c r="N28" t="n">
-        <v>79.47618482711061</v>
+        <v>89.29409977303739</v>
       </c>
       <c r="O28" t="n">
-        <v>214.627412141478</v>
+        <v>214.6274121414777</v>
       </c>
       <c r="P28" t="n">
         <v>25.21278023599918</v>
       </c>
       <c r="Q28" t="n">
-        <v>90.57453154294956</v>
+        <v>90.57453154294927</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>189.1483897019972</v>
+        <v>150.7779736112474</v>
       </c>
       <c r="K29" t="n">
-        <v>288.5784502444139</v>
+        <v>326.948866335164</v>
       </c>
       <c r="L29" t="n">
-        <v>420.5459092942173</v>
+        <v>420.5459092942174</v>
       </c>
       <c r="M29" t="n">
-        <v>309.5788563815735</v>
+        <v>466.9752245192079</v>
       </c>
       <c r="N29" t="n">
-        <v>457.2047385693702</v>
+        <v>457.2047385693703</v>
       </c>
       <c r="O29" t="n">
-        <v>394.8528321550373</v>
+        <v>237.4564640174029</v>
       </c>
       <c r="P29" t="n">
         <v>322.0050341971977</v>
       </c>
       <c r="Q29" t="n">
-        <v>203.0088435147801</v>
+        <v>203.0088435147802</v>
       </c>
       <c r="R29" t="n">
-        <v>39.87120191317074</v>
+        <v>39.87120191317077</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36975,7 +36975,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>11.97532011470312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36984,10 +36984,10 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>8.89165410728063</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>80.3664451235089</v>
       </c>
       <c r="K31" t="n">
         <v>4.56449374317388</v>
@@ -36999,16 +36999,16 @@
         <v>75.78876062124945</v>
       </c>
       <c r="N31" t="n">
-        <v>236.872552964745</v>
+        <v>79.47618482711061</v>
       </c>
       <c r="O31" t="n">
-        <v>214.627412141478</v>
+        <v>98.76757967495604</v>
       </c>
       <c r="P31" t="n">
-        <v>25.21278023599918</v>
+        <v>182.6091483736336</v>
       </c>
       <c r="Q31" t="n">
-        <v>51.99747819251432</v>
+        <v>90.57453154294953</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>31.75202156436281</v>
+        <v>189.1483897019971</v>
       </c>
       <c r="K32" t="n">
-        <v>288.5784502444139</v>
+        <v>326.948866335164</v>
       </c>
       <c r="L32" t="n">
         <v>420.5459092942173</v>
       </c>
       <c r="M32" t="n">
-        <v>466.9752245192079</v>
+        <v>311.0796422039947</v>
       </c>
       <c r="N32" t="n">
         <v>457.2047385693702</v>
@@ -37087,10 +37087,10 @@
         <v>322.0050341971977</v>
       </c>
       <c r="Q32" t="n">
-        <v>203.0088435147801</v>
+        <v>203.00884351478</v>
       </c>
       <c r="R32" t="n">
-        <v>39.87120191317074</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37206,13 +37206,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>8.780895119422013</v>
+        <v>8.780895119421956</v>
       </c>
       <c r="E34" t="n">
-        <v>10.9624054910652</v>
+        <v>10.96240549106514</v>
       </c>
       <c r="F34" t="n">
-        <v>11.97532011470312</v>
+        <v>11.97532011470307</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37221,19 +37221,19 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>8.891654107280601</v>
+        <v>8.891654107280544</v>
       </c>
       <c r="J34" t="n">
-        <v>80.36644512350887</v>
+        <v>80.36644512350881</v>
       </c>
       <c r="K34" t="n">
-        <v>161.9608618808082</v>
+        <v>4.56449374317388</v>
       </c>
       <c r="L34" t="n">
         <v>61.92828817082897</v>
       </c>
       <c r="M34" t="n">
-        <v>75.78876062124945</v>
+        <v>85.60667556717307</v>
       </c>
       <c r="N34" t="n">
         <v>79.47618482711061</v>
@@ -37242,10 +37242,10 @@
         <v>57.23104400384361</v>
       </c>
       <c r="P34" t="n">
-        <v>35.03069518192171</v>
+        <v>182.6091483736335</v>
       </c>
       <c r="Q34" t="n">
-        <v>90.5745315429495</v>
+        <v>90.57453154294944</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>6.66154453240258</v>
       </c>
       <c r="J35" t="n">
-        <v>31.75202156436281</v>
+        <v>229.0388565219256</v>
       </c>
       <c r="K35" t="n">
         <v>169.5524981975296</v>
@@ -37318,13 +37318,13 @@
         <v>299.8083704317359</v>
       </c>
       <c r="O35" t="n">
-        <v>434.7432989749658</v>
+        <v>237.4564640174029</v>
       </c>
       <c r="P35" t="n">
         <v>361.8955010171262</v>
       </c>
       <c r="Q35" t="n">
-        <v>64.18168269738273</v>
+        <v>64.1816826973832</v>
       </c>
       <c r="R35" t="n">
         <v>79.76166873309919</v>
@@ -37437,10 +37437,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>17.45485477562551</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>20.35336222259081</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -37458,7 +37458,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>37.80821699821632</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -37537,13 +37537,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>6.66154453240258</v>
+        <v>6.661544532402665</v>
       </c>
       <c r="J38" t="n">
-        <v>229.0388565219256</v>
+        <v>229.0388565219257</v>
       </c>
       <c r="K38" t="n">
-        <v>366.8393331550924</v>
+        <v>188.121705517767</v>
       </c>
       <c r="L38" t="n">
         <v>263.149541156583</v>
@@ -37552,7 +37552,7 @@
         <v>309.5788563815735</v>
       </c>
       <c r="N38" t="n">
-        <v>318.3775777519741</v>
+        <v>299.8083704317359</v>
       </c>
       <c r="O38" t="n">
         <v>237.4564640174029</v>
@@ -37561,10 +37561,10 @@
         <v>164.6086660595633</v>
       </c>
       <c r="Q38" t="n">
-        <v>45.61247537714574</v>
+        <v>242.8993103347086</v>
       </c>
       <c r="R38" t="n">
-        <v>79.76166873309919</v>
+        <v>79.76166873309927</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37695,7 +37695,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>37.8082169982163</v>
+        <v>7.429727046573878</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -37722,7 +37722,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>30.37848995164181</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37774,16 +37774,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>6.66154453240258</v>
+        <v>6.661544532402608</v>
       </c>
       <c r="J41" t="n">
-        <v>229.0388565219256</v>
+        <v>31.75202156436281</v>
       </c>
       <c r="K41" t="n">
-        <v>366.8393331550924</v>
+        <v>169.5524981975296</v>
       </c>
       <c r="L41" t="n">
-        <v>281.7187484768212</v>
+        <v>263.149541156583</v>
       </c>
       <c r="M41" t="n">
         <v>309.5788563815735</v>
@@ -37792,16 +37792,16 @@
         <v>299.8083704317359</v>
       </c>
       <c r="O41" t="n">
-        <v>237.4564640174029</v>
+        <v>434.7432989749658</v>
       </c>
       <c r="P41" t="n">
-        <v>164.6086660595633</v>
+        <v>361.8955010171262</v>
       </c>
       <c r="Q41" t="n">
-        <v>45.61247537714574</v>
+        <v>64.18168269738295</v>
       </c>
       <c r="R41" t="n">
-        <v>79.76166873309919</v>
+        <v>79.76166873309921</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37920,7 +37920,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>37.80821699821609</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>37.8082169982163</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>4.56449374317388</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>6.661544532402523</v>
+        <v>6.661544532402502</v>
       </c>
       <c r="J44" t="n">
-        <v>50.32122888460097</v>
+        <v>229.0388565219255</v>
       </c>
       <c r="K44" t="n">
-        <v>169.5524981975296</v>
+        <v>169.5524981975295</v>
       </c>
       <c r="L44" t="n">
-        <v>460.4363761141457</v>
+        <v>281.7187484768218</v>
       </c>
       <c r="M44" t="n">
-        <v>309.5788563815735</v>
+        <v>506.8656913391361</v>
       </c>
       <c r="N44" t="n">
-        <v>299.8083704317359</v>
+        <v>299.8083704317357</v>
       </c>
       <c r="O44" t="n">
-        <v>237.4564640174029</v>
+        <v>237.4564640174027</v>
       </c>
       <c r="P44" t="n">
-        <v>164.6086660595633</v>
+        <v>164.6086660595632</v>
       </c>
       <c r="Q44" t="n">
-        <v>242.8993103347085</v>
+        <v>45.6124753771456</v>
       </c>
       <c r="R44" t="n">
-        <v>79.76166873309913</v>
+        <v>79.76166873309907</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>25.2816100731325</v>
+        <v>25.28161007313244</v>
       </c>
       <c r="K45" t="n">
-        <v>171.1101399407011</v>
+        <v>171.110139940701</v>
       </c>
       <c r="L45" t="n">
-        <v>292.1033421670472</v>
+        <v>292.1033421670471</v>
       </c>
       <c r="M45" t="n">
-        <v>393.3750869675192</v>
+        <v>393.3750869675191</v>
       </c>
       <c r="N45" t="n">
-        <v>419.6522250837868</v>
+        <v>419.6522250837867</v>
       </c>
       <c r="O45" t="n">
-        <v>316.8132565468168</v>
+        <v>316.8132565468167</v>
       </c>
       <c r="P45" t="n">
-        <v>237.0957532931366</v>
+        <v>237.0957532931365</v>
       </c>
       <c r="Q45" t="n">
-        <v>105.2621620657719</v>
+        <v>105.2621620657718</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,28 +38175,28 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>4.56449374317388</v>
+        <v>4.564493743173813</v>
       </c>
       <c r="L46" t="n">
-        <v>61.92828817082897</v>
+        <v>61.92828817082889</v>
       </c>
       <c r="M46" t="n">
-        <v>75.78876062124945</v>
+        <v>75.78876062124937</v>
       </c>
       <c r="N46" t="n">
-        <v>79.47618482711061</v>
+        <v>79.47618482711053</v>
       </c>
       <c r="O46" t="n">
-        <v>57.23104400384361</v>
+        <v>57.23104400384353</v>
       </c>
       <c r="P46" t="n">
-        <v>25.21278023599918</v>
+        <v>25.21278023599911</v>
       </c>
       <c r="Q46" t="n">
-        <v>37.80821699821665</v>
+        <v>7.429727046575399</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>30.37848995164167</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
